--- a/data/clean_data/total_brand.xlsx
+++ b/data/clean_data/total_brand.xlsx
@@ -1,40 +1,50 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="8010" windowWidth="14805" xWindow="240" yWindow="105"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="酒类" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="大家电" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="小家电" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
+  <definedNames/>
   <calcPr calcId="122211" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+  <numFmts count="2">
+    <numFmt formatCode="YYYY-MM-DD HH:MM:SS" numFmtId="164"/>
+    <numFmt formatCode="yyyy-mm-dd h:mm:ss" numFmtId="165"/>
+  </numFmts>
+  <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -42,18 +52,33 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+  <cellXfs count="4">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleMedium9" defaultTableStyle="TableStyleMedium2"/>
 </styleSheet>
 </file>
 
@@ -343,37 +368,5224 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:P58"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>dt</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>五粮液</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>古井贡</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>水井坊</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>洋河</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>茅台</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>酒鬼</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>dt</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>五粮液</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>古井贡</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>水井坊</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>洋河</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>茅台</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>酒鬼</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="3" t="n">
+        <v>43101</v>
+      </c>
+      <c r="B2" t="n">
+        <v>2.848198210000001</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.32144153</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.33849684</v>
+      </c>
+      <c r="E2" t="n">
+        <v>1.41422837</v>
+      </c>
+      <c r="F2" t="n">
+        <v>2.887342020000001</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0.11411144</v>
+      </c>
+      <c r="J2" s="3" t="n">
+        <v>43466</v>
+      </c>
+      <c r="K2" t="n">
+        <v>1.238585186106131</v>
+      </c>
+      <c r="L2" t="n">
+        <v>1.358021752820801</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0.8682633196812115</v>
+      </c>
+      <c r="N2" t="n">
+        <v>2.18857892802702</v>
+      </c>
+      <c r="O2" t="n">
+        <v>1.304789039159274</v>
+      </c>
+      <c r="P2" t="n">
+        <v>1.406561165120693</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="3" t="n">
+        <v>43132</v>
+      </c>
+      <c r="B3" t="n">
+        <v>2.39100959</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.21578443</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.23131532</v>
+      </c>
+      <c r="E3" t="n">
+        <v>2.04669712</v>
+      </c>
+      <c r="F3" t="n">
+        <v>2.68641041</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0.09281974999999999</v>
+      </c>
+      <c r="J3" s="3" t="n">
+        <v>43497</v>
+      </c>
+      <c r="K3" t="n">
+        <v>-0.511554376492484</v>
+      </c>
+      <c r="L3" t="n">
+        <v>-0.4369022825233498</v>
+      </c>
+      <c r="M3" t="n">
+        <v>-0.4081033197455318</v>
+      </c>
+      <c r="N3" t="n">
+        <v>-0.6615596253929354</v>
+      </c>
+      <c r="O3" t="n">
+        <v>-0.4412824211770382</v>
+      </c>
+      <c r="P3" t="n">
+        <v>-0.1114385677617101</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="3" t="n">
+        <v>43160</v>
+      </c>
+      <c r="B4" t="n">
+        <v>0.84141109</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.07808074</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.08959279000000001</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.33258988</v>
+      </c>
+      <c r="F4" t="n">
+        <v>2.12422232</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0.05451541999999999</v>
+      </c>
+      <c r="J4" s="3" t="n">
+        <v>43525</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0.6838156483057523</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0.5595643688827747</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0.6721554267927139</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0.6148678366281017</v>
+      </c>
+      <c r="O4" t="n">
+        <v>-0.2489444748890501</v>
+      </c>
+      <c r="P4" t="n">
+        <v>0.5647721323618164</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="3" t="n">
+        <v>43191</v>
+      </c>
+      <c r="B5" t="n">
+        <v>0.85246099</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.06212433000000001</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.06950428</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.28575977</v>
+      </c>
+      <c r="F5" t="n">
+        <v>1.41163938</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0.03557953999999999</v>
+      </c>
+      <c r="J5" s="3" t="n">
+        <v>43556</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0.4709329279689385</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0.768899559963061</v>
+      </c>
+      <c r="M5" t="n">
+        <v>1.70757915915394</v>
+      </c>
+      <c r="N5" t="n">
+        <v>1.129305045283316</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0.2413637893836598</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0.988413565774038</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="3" t="n">
+        <v>43221</v>
+      </c>
+      <c r="B6" t="n">
+        <v>0.7104014</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.06198387</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.07338078000000001</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.32401176</v>
+      </c>
+      <c r="F6" t="n">
+        <v>1.14744193</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0.02833167</v>
+      </c>
+      <c r="J6" s="3" t="n">
+        <v>43586</v>
+      </c>
+      <c r="K6" t="n">
+        <v>1.164311979114906</v>
+      </c>
+      <c r="L6" t="n">
+        <v>3.272523803370134</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0.8311503366412838</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0.8844237320275041</v>
+      </c>
+      <c r="O6" t="n">
+        <v>0.2929300134604633</v>
+      </c>
+      <c r="P6" t="n">
+        <v>0.4610695380822945</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="3" t="n">
+        <v>43252</v>
+      </c>
+      <c r="B7" t="n">
+        <v>1.65741378</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.19293335</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.20886339</v>
+      </c>
+      <c r="E7" t="n">
+        <v>1.02296469</v>
+      </c>
+      <c r="F7" t="n">
+        <v>2.7736934</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0.09774778000000001</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="3" t="n">
+        <v>43282</v>
+      </c>
+      <c r="B8" t="n">
+        <v>0.7241027399999999</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.07443178</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.12756123</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.3804973</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0.9995494999999999</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0.0490878</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="3" t="n">
+        <v>43313</v>
+      </c>
+      <c r="B9" t="n">
+        <v>0.7982232599999998</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.10562028</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.12493342</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.5258090000000001</v>
+      </c>
+      <c r="F9" t="n">
+        <v>1.53604201</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0.05713865999999999</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="3" t="n">
+        <v>43344</v>
+      </c>
+      <c r="B10" t="n">
+        <v>2.24528448</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.26207215</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.47710175</v>
+      </c>
+      <c r="E10" t="n">
+        <v>1.60895124</v>
+      </c>
+      <c r="F10" t="n">
+        <v>3.921923509999999</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0.12281038</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="3" t="n">
+        <v>43374</v>
+      </c>
+      <c r="B11" t="n">
+        <v>1.08260032</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.09771300999999999</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.16350141</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.5163512699999999</v>
+      </c>
+      <c r="F11" t="n">
+        <v>2.24962934</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0.0507074</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="3" t="n">
+        <v>43405</v>
+      </c>
+      <c r="B12" t="n">
+        <v>2.46597902</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.29909124</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.42272986</v>
+      </c>
+      <c r="E12" t="n">
+        <v>1.62416934</v>
+      </c>
+      <c r="F12" t="n">
+        <v>4.646690169999999</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0.21800138</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="3" t="n">
+        <v>43435</v>
+      </c>
+      <c r="B13" t="n">
+        <v>2.45018543</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0.31813222</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.24901757</v>
+      </c>
+      <c r="E13" t="n">
+        <v>1.29857072</v>
+      </c>
+      <c r="F13" t="n">
+        <v>3.58219444</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0.13435206</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="3" t="n">
+        <v>43466</v>
+      </c>
+      <c r="B14" t="n">
+        <v>6.375934319999999</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.7579661200000001</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0.6324012299999999</v>
+      </c>
+      <c r="E14" t="n">
+        <v>4.50937878</v>
+      </c>
+      <c r="F14" t="n">
+        <v>6.654714239999999</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0.27461616</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="3" t="n">
+        <v>43497</v>
+      </c>
+      <c r="B15" t="n">
+        <v>1.16787817</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.12150772</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0.13691477</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.6926849399999999</v>
+      </c>
+      <c r="F15" t="n">
+        <v>1.50094472</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0.08247605</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="3" t="n">
+        <v>43525</v>
+      </c>
+      <c r="B16" t="n">
+        <v>1.41678116</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.12177194</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.14981307</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.5370887</v>
+      </c>
+      <c r="F16" t="n">
+        <v>1.59540891</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0.08530421000000001</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="3" t="n">
+        <v>43556</v>
+      </c>
+      <c r="B17" t="n">
+        <v>1.25391294</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.1098917</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.18818834</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.60846972</v>
+      </c>
+      <c r="F17" t="n">
+        <v>1.75235801</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0.07074684000000001</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="3" t="n">
+        <v>43586</v>
+      </c>
+      <c r="B18" t="n">
+        <v>1.53753026</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.26482756</v>
+      </c>
+      <c r="D18" t="n">
+        <v>0.13437124</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0.61057545</v>
+      </c>
+      <c r="F18" t="n">
+        <v>1.48356211</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0.04139454</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="inlineStr">
+        <is>
+          <t>dt</t>
+        </is>
+      </c>
+      <c r="B21" s="1" t="inlineStr">
+        <is>
+          <t>五粮液</t>
+        </is>
+      </c>
+      <c r="C21" s="1" t="inlineStr">
+        <is>
+          <t>古井贡</t>
+        </is>
+      </c>
+      <c r="D21" s="1" t="inlineStr">
+        <is>
+          <t>水井坊</t>
+        </is>
+      </c>
+      <c r="E21" s="1" t="inlineStr">
+        <is>
+          <t>洋河</t>
+        </is>
+      </c>
+      <c r="F21" s="1" t="inlineStr">
+        <is>
+          <t>茅台</t>
+        </is>
+      </c>
+      <c r="G21" s="1" t="inlineStr">
+        <is>
+          <t>酒鬼</t>
+        </is>
+      </c>
+      <c r="J21" s="1" t="inlineStr">
+        <is>
+          <t>dt</t>
+        </is>
+      </c>
+      <c r="K21" s="1" t="inlineStr">
+        <is>
+          <t>五粮液</t>
+        </is>
+      </c>
+      <c r="L21" s="1" t="inlineStr">
+        <is>
+          <t>古井贡</t>
+        </is>
+      </c>
+      <c r="M21" s="1" t="inlineStr">
+        <is>
+          <t>水井坊</t>
+        </is>
+      </c>
+      <c r="N21" s="1" t="inlineStr">
+        <is>
+          <t>洋河</t>
+        </is>
+      </c>
+      <c r="O21" s="1" t="inlineStr">
+        <is>
+          <t>茅台</t>
+        </is>
+      </c>
+      <c r="P21" s="1" t="inlineStr">
+        <is>
+          <t>酒鬼</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="3" t="n">
+        <v>43101</v>
+      </c>
+      <c r="B22" t="n">
+        <v>0.00557502</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0.00126662</v>
+      </c>
+      <c r="D22" t="n">
+        <v>0.00069744</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0.005414209999999999</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0.00511734</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0.00049259</v>
+      </c>
+      <c r="J22" s="3" t="n">
+        <v>43466</v>
+      </c>
+      <c r="K22" t="n">
+        <v>1.119091949445921</v>
+      </c>
+      <c r="L22" t="n">
+        <v>1.337938766165069</v>
+      </c>
+      <c r="M22" t="n">
+        <v>0.9433929800412937</v>
+      </c>
+      <c r="N22" t="n">
+        <v>1.433413184933721</v>
+      </c>
+      <c r="O22" t="n">
+        <v>1.125100149687143</v>
+      </c>
+      <c r="P22" t="n">
+        <v>0.7908605534014088</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="3" t="n">
+        <v>43132</v>
+      </c>
+      <c r="B23" t="n">
+        <v>0.00476643</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0.0009187799999999999</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0.0005802099999999999</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0.00685166</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0.004595449999999999</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0.00039973</v>
+      </c>
+      <c r="J23" s="3" t="n">
+        <v>43497</v>
+      </c>
+      <c r="K23" t="n">
+        <v>-0.5100190289168203</v>
+      </c>
+      <c r="L23" t="n">
+        <v>-0.3708613596290732</v>
+      </c>
+      <c r="M23" t="n">
+        <v>-0.4895985936126575</v>
+      </c>
+      <c r="N23" t="n">
+        <v>-0.6725100194697342</v>
+      </c>
+      <c r="O23" t="n">
+        <v>-0.4984364969698288</v>
+      </c>
+      <c r="P23" t="n">
+        <v>-0.2643534385710354</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="3" t="n">
+        <v>43160</v>
+      </c>
+      <c r="B24" t="n">
+        <v>0.00133878</v>
+      </c>
+      <c r="C24" t="n">
+        <v>0.00038668</v>
+      </c>
+      <c r="D24" t="n">
+        <v>0.00022984</v>
+      </c>
+      <c r="E24" t="n">
+        <v>0.00116154</v>
+      </c>
+      <c r="F24" t="n">
+        <v>0.002451210000000001</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0.00020158</v>
+      </c>
+      <c r="J24" s="3" t="n">
+        <v>43525</v>
+      </c>
+      <c r="K24" t="n">
+        <v>0.4778380316407471</v>
+      </c>
+      <c r="L24" t="n">
+        <v>0.4235284990172754</v>
+      </c>
+      <c r="M24" t="n">
+        <v>0.2440828402366864</v>
+      </c>
+      <c r="N24" t="n">
+        <v>0.443635173993147</v>
+      </c>
+      <c r="O24" t="n">
+        <v>-0.1500116269107913</v>
+      </c>
+      <c r="P24" t="n">
+        <v>0.527185236630618</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="3" t="n">
+        <v>43191</v>
+      </c>
+      <c r="B25" t="n">
+        <v>0.0011925</v>
+      </c>
+      <c r="C25" t="n">
+        <v>0.00028337</v>
+      </c>
+      <c r="D25" t="n">
+        <v>0.00021988</v>
+      </c>
+      <c r="E25" t="n">
+        <v>0.00107633</v>
+      </c>
+      <c r="F25" t="n">
+        <v>0.00160741</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0.00014463</v>
+      </c>
+      <c r="J25" s="3" t="n">
+        <v>43556</v>
+      </c>
+      <c r="K25" t="n">
+        <v>0.3855597484276732</v>
+      </c>
+      <c r="L25" t="n">
+        <v>0.6436108268341743</v>
+      </c>
+      <c r="M25" t="n">
+        <v>1.246907404038567</v>
+      </c>
+      <c r="N25" t="n">
+        <v>0.4855759850603443</v>
+      </c>
+      <c r="O25" t="n">
+        <v>0.4011982008323953</v>
+      </c>
+      <c r="P25" t="n">
+        <v>0.7272350134826799</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="3" t="n">
+        <v>43221</v>
+      </c>
+      <c r="B26" t="n">
+        <v>0.00118265</v>
+      </c>
+      <c r="C26" t="n">
+        <v>0.00028054</v>
+      </c>
+      <c r="D26" t="n">
+        <v>0.00016617</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0.00152125</v>
+      </c>
+      <c r="F26" t="n">
+        <v>0.00177086</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0.00012042</v>
+      </c>
+      <c r="J26" s="3" t="n">
+        <v>43586</v>
+      </c>
+      <c r="K26" t="n">
+        <v>0.2554686509110893</v>
+      </c>
+      <c r="L26" t="n">
+        <v>3.223034148428032</v>
+      </c>
+      <c r="M26" t="n">
+        <v>0.3935126677498948</v>
+      </c>
+      <c r="N26" t="n">
+        <v>-0.02391454396055881</v>
+      </c>
+      <c r="O26" t="n">
+        <v>0.1750957162056856</v>
+      </c>
+      <c r="P26" t="n">
+        <v>-0.2483806676631789</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="3" t="n">
+        <v>43252</v>
+      </c>
+      <c r="B27" t="n">
+        <v>0.002382</v>
+      </c>
+      <c r="C27" t="n">
+        <v>0.0008528100000000001</v>
+      </c>
+      <c r="D27" t="n">
+        <v>0.00042396</v>
+      </c>
+      <c r="E27" t="n">
+        <v>0.00459914</v>
+      </c>
+      <c r="F27" t="n">
+        <v>0.003629739999999999</v>
+      </c>
+      <c r="G27" t="n">
+        <v>0.00036568</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="3" t="n">
+        <v>43282</v>
+      </c>
+      <c r="B28" t="n">
+        <v>0.00130502</v>
+      </c>
+      <c r="C28" t="n">
+        <v>0.00033785</v>
+      </c>
+      <c r="D28" t="n">
+        <v>0.00021035</v>
+      </c>
+      <c r="E28" t="n">
+        <v>0.0014001</v>
+      </c>
+      <c r="F28" t="n">
+        <v>0.00164764</v>
+      </c>
+      <c r="G28" t="n">
+        <v>0.00018913</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="3" t="n">
+        <v>43313</v>
+      </c>
+      <c r="B29" t="n">
+        <v>0.00152965</v>
+      </c>
+      <c r="C29" t="n">
+        <v>0.00043572</v>
+      </c>
+      <c r="D29" t="n">
+        <v>0.00032772</v>
+      </c>
+      <c r="E29" t="n">
+        <v>0.00169727</v>
+      </c>
+      <c r="F29" t="n">
+        <v>0.00236352</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0.00021711</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="3" t="n">
+        <v>43344</v>
+      </c>
+      <c r="B30" t="n">
+        <v>0.003890299999999999</v>
+      </c>
+      <c r="C30" t="n">
+        <v>0.00103142</v>
+      </c>
+      <c r="D30" t="n">
+        <v>0.00060863</v>
+      </c>
+      <c r="E30" t="n">
+        <v>0.00546815</v>
+      </c>
+      <c r="F30" t="n">
+        <v>0.004775000000000001</v>
+      </c>
+      <c r="G30" t="n">
+        <v>0.00044407</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="3" t="n">
+        <v>43374</v>
+      </c>
+      <c r="B31" t="n">
+        <v>0.00226871</v>
+      </c>
+      <c r="C31" t="n">
+        <v>0.00043093</v>
+      </c>
+      <c r="D31" t="n">
+        <v>0.00023381</v>
+      </c>
+      <c r="E31" t="n">
+        <v>0.00179599</v>
+      </c>
+      <c r="F31" t="n">
+        <v>0.00265942</v>
+      </c>
+      <c r="G31" t="n">
+        <v>0.0001677</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="3" t="n">
+        <v>43405</v>
+      </c>
+      <c r="B32" t="n">
+        <v>0.00434257</v>
+      </c>
+      <c r="C32" t="n">
+        <v>0.00113738</v>
+      </c>
+      <c r="D32" t="n">
+        <v>0.0009172599999999999</v>
+      </c>
+      <c r="E32" t="n">
+        <v>0.00488894</v>
+      </c>
+      <c r="F32" t="n">
+        <v>0.006610149999999997</v>
+      </c>
+      <c r="G32" t="n">
+        <v>0.00064419</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="3" t="n">
+        <v>43435</v>
+      </c>
+      <c r="B33" t="n">
+        <v>0.00532622</v>
+      </c>
+      <c r="C33" t="n">
+        <v>0.00127422</v>
+      </c>
+      <c r="D33" t="n">
+        <v>0.00043927</v>
+      </c>
+      <c r="E33" t="n">
+        <v>0.00369182</v>
+      </c>
+      <c r="F33" t="n">
+        <v>0.005290960000000001</v>
+      </c>
+      <c r="G33" t="n">
+        <v>0.0004496400000000001</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="3" t="n">
+        <v>43466</v>
+      </c>
+      <c r="B34" t="n">
+        <v>0.01181398</v>
+      </c>
+      <c r="C34" t="n">
+        <v>0.00296128</v>
+      </c>
+      <c r="D34" t="n">
+        <v>0.0013554</v>
+      </c>
+      <c r="E34" t="n">
+        <v>0.01317501</v>
+      </c>
+      <c r="F34" t="n">
+        <v>0.01087486</v>
+      </c>
+      <c r="G34" t="n">
+        <v>0.00088216</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="3" t="n">
+        <v>43497</v>
+      </c>
+      <c r="B35" t="n">
+        <v>0.00233546</v>
+      </c>
+      <c r="C35" t="n">
+        <v>0.00057804</v>
+      </c>
+      <c r="D35" t="n">
+        <v>0.00029614</v>
+      </c>
+      <c r="E35" t="n">
+        <v>0.00224385</v>
+      </c>
+      <c r="F35" t="n">
+        <v>0.00230491</v>
+      </c>
+      <c r="G35" t="n">
+        <v>0.00029406</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="3" t="n">
+        <v>43525</v>
+      </c>
+      <c r="B36" t="n">
+        <v>0.001978499999999999</v>
+      </c>
+      <c r="C36" t="n">
+        <v>0.0005504500000000001</v>
+      </c>
+      <c r="D36" t="n">
+        <v>0.00028594</v>
+      </c>
+      <c r="E36" t="n">
+        <v>0.00167684</v>
+      </c>
+      <c r="F36" t="n">
+        <v>0.0020835</v>
+      </c>
+      <c r="G36" t="n">
+        <v>0.00030785</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="3" t="n">
+        <v>43556</v>
+      </c>
+      <c r="B37" t="n">
+        <v>0.00165228</v>
+      </c>
+      <c r="C37" t="n">
+        <v>0.00046575</v>
+      </c>
+      <c r="D37" t="n">
+        <v>0.00049405</v>
+      </c>
+      <c r="E37" t="n">
+        <v>0.00159897</v>
+      </c>
+      <c r="F37" t="n">
+        <v>0.0022523</v>
+      </c>
+      <c r="G37" t="n">
+        <v>0.00024981</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="3" t="n">
+        <v>43586</v>
+      </c>
+      <c r="B38" t="n">
+        <v>0.00148478</v>
+      </c>
+      <c r="C38" t="n">
+        <v>0.00118473</v>
+      </c>
+      <c r="D38" t="n">
+        <v>0.00023156</v>
+      </c>
+      <c r="E38" t="n">
+        <v>0.00148487</v>
+      </c>
+      <c r="F38" t="n">
+        <v>0.00208093</v>
+      </c>
+      <c r="G38" t="n">
+        <v>9.051e-05</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="inlineStr">
+        <is>
+          <t>dt</t>
+        </is>
+      </c>
+      <c r="B41" s="1" t="inlineStr">
+        <is>
+          <t>五粮液</t>
+        </is>
+      </c>
+      <c r="C41" s="1" t="inlineStr">
+        <is>
+          <t>古井贡</t>
+        </is>
+      </c>
+      <c r="D41" s="1" t="inlineStr">
+        <is>
+          <t>水井坊</t>
+        </is>
+      </c>
+      <c r="E41" s="1" t="inlineStr">
+        <is>
+          <t>洋河</t>
+        </is>
+      </c>
+      <c r="F41" s="1" t="inlineStr">
+        <is>
+          <t>茅台</t>
+        </is>
+      </c>
+      <c r="G41" s="1" t="inlineStr">
+        <is>
+          <t>酒鬼</t>
+        </is>
+      </c>
+      <c r="J41" s="1" t="inlineStr">
+        <is>
+          <t>dt</t>
+        </is>
+      </c>
+      <c r="K41" s="1" t="inlineStr">
+        <is>
+          <t>五粮液</t>
+        </is>
+      </c>
+      <c r="L41" s="1" t="inlineStr">
+        <is>
+          <t>古井贡</t>
+        </is>
+      </c>
+      <c r="M41" s="1" t="inlineStr">
+        <is>
+          <t>水井坊</t>
+        </is>
+      </c>
+      <c r="N41" s="1" t="inlineStr">
+        <is>
+          <t>洋河</t>
+        </is>
+      </c>
+      <c r="O41" s="1" t="inlineStr">
+        <is>
+          <t>茅台</t>
+        </is>
+      </c>
+      <c r="P41" s="1" t="inlineStr">
+        <is>
+          <t>酒鬼</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="3" t="n">
+        <v>43101</v>
+      </c>
+      <c r="B42" t="n">
+        <v>510.8857385264986</v>
+      </c>
+      <c r="C42" t="n">
+        <v>253.7789786992153</v>
+      </c>
+      <c r="D42" t="n">
+        <v>485.3418788713008</v>
+      </c>
+      <c r="E42" t="n">
+        <v>261.206781783492</v>
+      </c>
+      <c r="F42" t="n">
+        <v>564.2271219031765</v>
+      </c>
+      <c r="G42" t="n">
+        <v>231.6560222497411</v>
+      </c>
+      <c r="J42" s="3" t="n">
+        <v>43466</v>
+      </c>
+      <c r="K42" t="n">
+        <v>0.05638888708508061</v>
+      </c>
+      <c r="L42" t="n">
+        <v>0.008590039630795632</v>
+      </c>
+      <c r="M42" t="n">
+        <v>-0.0386590160259227</v>
+      </c>
+      <c r="N42" t="n">
+        <v>0.3103319024359885</v>
+      </c>
+      <c r="O42" t="n">
+        <v>0.08455549236048232</v>
+      </c>
+      <c r="P42" t="n">
+        <v>0.3438015375065773</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="3" t="n">
+        <v>43132</v>
+      </c>
+      <c r="B43" t="n">
+        <v>501.6353098650352</v>
+      </c>
+      <c r="C43" t="n">
+        <v>234.8597379133199</v>
+      </c>
+      <c r="D43" t="n">
+        <v>398.6751693352407</v>
+      </c>
+      <c r="E43" t="n">
+        <v>298.715511277559</v>
+      </c>
+      <c r="F43" t="n">
+        <v>584.5804893971213</v>
+      </c>
+      <c r="G43" t="n">
+        <v>232.2061141270357</v>
+      </c>
+      <c r="J43" s="3" t="n">
+        <v>43497</v>
+      </c>
+      <c r="K43" t="n">
+        <v>-0.003133484086677019</v>
+      </c>
+      <c r="L43" t="n">
+        <v>-0.1049703811791631</v>
+      </c>
+      <c r="M43" t="n">
+        <v>0.1596689837591847</v>
+      </c>
+      <c r="N43" t="n">
+        <v>0.03343734076709182</v>
+      </c>
+      <c r="O43" t="n">
+        <v>0.1139518235427757</v>
+      </c>
+      <c r="P43" t="n">
+        <v>0.2078645899089013</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="3" t="n">
+        <v>43160</v>
+      </c>
+      <c r="B44" t="n">
+        <v>628.490932042606</v>
+      </c>
+      <c r="C44" t="n">
+        <v>201.9259853108513</v>
+      </c>
+      <c r="D44" t="n">
+        <v>389.8050382875043</v>
+      </c>
+      <c r="E44" t="n">
+        <v>286.3352790261205</v>
+      </c>
+      <c r="F44" t="n">
+        <v>866.6015233292943</v>
+      </c>
+      <c r="G44" t="n">
+        <v>270.4406191090386</v>
+      </c>
+      <c r="J44" s="3" t="n">
+        <v>43525</v>
+      </c>
+      <c r="K44" t="n">
+        <v>0.1393776667368085</v>
+      </c>
+      <c r="L44" t="n">
+        <v>0.09556244919536971</v>
+      </c>
+      <c r="M44" t="n">
+        <v>0.3440868828916461</v>
+      </c>
+      <c r="N44" t="n">
+        <v>0.1186121436493675</v>
+      </c>
+      <c r="O44" t="n">
+        <v>-0.116393177966301</v>
+      </c>
+      <c r="P44" t="n">
+        <v>0.02461187734771797</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="3" t="n">
+        <v>43191</v>
+      </c>
+      <c r="B45" t="n">
+        <v>714.8519832285115</v>
+      </c>
+      <c r="C45" t="n">
+        <v>219.2339697215654</v>
+      </c>
+      <c r="D45" t="n">
+        <v>316.1009641622704</v>
+      </c>
+      <c r="E45" t="n">
+        <v>265.4945695093513</v>
+      </c>
+      <c r="F45" t="n">
+        <v>878.2074144120046</v>
+      </c>
+      <c r="G45" t="n">
+        <v>246.0038719491115</v>
+      </c>
+      <c r="J45" s="3" t="n">
+        <v>43556</v>
+      </c>
+      <c r="K45" t="n">
+        <v>0.06161638257617286</v>
+      </c>
+      <c r="L45" t="n">
+        <v>0.07622773656840076</v>
+      </c>
+      <c r="M45" t="n">
+        <v>0.2050248062235973</v>
+      </c>
+      <c r="N45" t="n">
+        <v>0.4333195115541826</v>
+      </c>
+      <c r="O45" t="n">
+        <v>-0.114069809220269</v>
+      </c>
+      <c r="P45" t="n">
+        <v>0.1512119371438259</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="3" t="n">
+        <v>43221</v>
+      </c>
+      <c r="B46" t="n">
+        <v>600.6860863315436</v>
+      </c>
+      <c r="C46" t="n">
+        <v>220.9448563484708</v>
+      </c>
+      <c r="D46" t="n">
+        <v>441.6006499368117</v>
+      </c>
+      <c r="E46" t="n">
+        <v>212.9904749383731</v>
+      </c>
+      <c r="F46" t="n">
+        <v>647.9574500525169</v>
+      </c>
+      <c r="G46" t="n">
+        <v>235.2737917289487</v>
+      </c>
+      <c r="J46" s="3" t="n">
+        <v>43586</v>
+      </c>
+      <c r="K46" t="n">
+        <v>0.7239076240926223</v>
+      </c>
+      <c r="L46" t="n">
+        <v>0.01171898052506282</v>
+      </c>
+      <c r="M46" t="n">
+        <v>0.3140535992385651</v>
+      </c>
+      <c r="N46" t="n">
+        <v>0.9305929827842441</v>
+      </c>
+      <c r="O46" t="n">
+        <v>0.1002763397310795</v>
+      </c>
+      <c r="P46" t="n">
+        <v>0.9438956333650415</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="3" t="n">
+        <v>43252</v>
+      </c>
+      <c r="B47" t="n">
+        <v>695.8076322418135</v>
+      </c>
+      <c r="C47" t="n">
+        <v>226.2325136900365</v>
+      </c>
+      <c r="D47" t="n">
+        <v>492.6488112086045</v>
+      </c>
+      <c r="E47" t="n">
+        <v>222.4252121048718</v>
+      </c>
+      <c r="F47" t="n">
+        <v>764.1575980648754</v>
+      </c>
+      <c r="G47" t="n">
+        <v>267.3041457011595</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="3" t="n">
+        <v>43282</v>
+      </c>
+      <c r="B48" t="n">
+        <v>554.8594964061853</v>
+      </c>
+      <c r="C48" t="n">
+        <v>220.3101376350452</v>
+      </c>
+      <c r="D48" t="n">
+        <v>606.4237223674828</v>
+      </c>
+      <c r="E48" t="n">
+        <v>271.7643739732877</v>
+      </c>
+      <c r="F48" t="n">
+        <v>606.6552766381005</v>
+      </c>
+      <c r="G48" t="n">
+        <v>259.545286311003</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="3" t="n">
+        <v>43313</v>
+      </c>
+      <c r="B49" t="n">
+        <v>521.8339227927955</v>
+      </c>
+      <c r="C49" t="n">
+        <v>242.4040209308731</v>
+      </c>
+      <c r="D49" t="n">
+        <v>381.2200048822165</v>
+      </c>
+      <c r="E49" t="n">
+        <v>309.7969091541123</v>
+      </c>
+      <c r="F49" t="n">
+        <v>649.8959221838613</v>
+      </c>
+      <c r="G49" t="n">
+        <v>263.1783888351527</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="3" t="n">
+        <v>43344</v>
+      </c>
+      <c r="B50" t="n">
+        <v>577.1494434876488</v>
+      </c>
+      <c r="C50" t="n">
+        <v>254.0886835624673</v>
+      </c>
+      <c r="D50" t="n">
+        <v>783.8945664853852</v>
+      </c>
+      <c r="E50" t="n">
+        <v>294.2405091301446</v>
+      </c>
+      <c r="F50" t="n">
+        <v>821.3452376963346</v>
+      </c>
+      <c r="G50" t="n">
+        <v>276.5563537280159</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="3" t="n">
+        <v>43374</v>
+      </c>
+      <c r="B51" t="n">
+        <v>477.1876176329279</v>
+      </c>
+      <c r="C51" t="n">
+        <v>226.7491471932796</v>
+      </c>
+      <c r="D51" t="n">
+        <v>699.2917753731664</v>
+      </c>
+      <c r="E51" t="n">
+        <v>287.502307919309</v>
+      </c>
+      <c r="F51" t="n">
+        <v>845.9097622789933</v>
+      </c>
+      <c r="G51" t="n">
+        <v>302.3697078115683</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="3" t="n">
+        <v>43405</v>
+      </c>
+      <c r="B52" t="n">
+        <v>567.8616625638734</v>
+      </c>
+      <c r="C52" t="n">
+        <v>262.9650952188363</v>
+      </c>
+      <c r="D52" t="n">
+        <v>460.8615441641411</v>
+      </c>
+      <c r="E52" t="n">
+        <v>332.2129827733619</v>
+      </c>
+      <c r="F52" t="n">
+        <v>702.9628934290449</v>
+      </c>
+      <c r="G52" t="n">
+        <v>338.411617690433</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="3" t="n">
+        <v>43435</v>
+      </c>
+      <c r="B53" t="n">
+        <v>460.0233242336967</v>
+      </c>
+      <c r="C53" t="n">
+        <v>249.6682048625825</v>
+      </c>
+      <c r="D53" t="n">
+        <v>566.8895440162088</v>
+      </c>
+      <c r="E53" t="n">
+        <v>351.7426960144319</v>
+      </c>
+      <c r="F53" t="n">
+        <v>677.040544627062</v>
+      </c>
+      <c r="G53" t="n">
+        <v>298.7991726714704</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="3" t="n">
+        <v>43466</v>
+      </c>
+      <c r="B54" t="n">
+        <v>539.6940167496474</v>
+      </c>
+      <c r="C54" t="n">
+        <v>255.9589501837044</v>
+      </c>
+      <c r="D54" t="n">
+        <v>466.5790393979637</v>
+      </c>
+      <c r="E54" t="n">
+        <v>342.2675793035452</v>
+      </c>
+      <c r="F54" t="n">
+        <v>611.9356239988374</v>
+      </c>
+      <c r="G54" t="n">
+        <v>311.29971887186</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="3" t="n">
+        <v>43497</v>
+      </c>
+      <c r="B55" t="n">
+        <v>500.0634436042578</v>
+      </c>
+      <c r="C55" t="n">
+        <v>210.2064217009203</v>
+      </c>
+      <c r="D55" t="n">
+        <v>462.3312284730195</v>
+      </c>
+      <c r="E55" t="n">
+        <v>308.7037636205628</v>
+      </c>
+      <c r="F55" t="n">
+        <v>651.1945021714515</v>
+      </c>
+      <c r="G55" t="n">
+        <v>280.4735428143916</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="3" t="n">
+        <v>43525</v>
+      </c>
+      <c r="B56" t="n">
+        <v>716.0885317159465</v>
+      </c>
+      <c r="C56" t="n">
+        <v>221.2225270233445</v>
+      </c>
+      <c r="D56" t="n">
+        <v>523.9318388473105</v>
+      </c>
+      <c r="E56" t="n">
+        <v>320.2981202738484</v>
+      </c>
+      <c r="F56" t="n">
+        <v>765.7350179985602</v>
+      </c>
+      <c r="G56" t="n">
+        <v>277.0966704563911</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="3" t="n">
+        <v>43556</v>
+      </c>
+      <c r="B57" t="n">
+        <v>758.8985765124554</v>
+      </c>
+      <c r="C57" t="n">
+        <v>235.9456790123457</v>
+      </c>
+      <c r="D57" t="n">
+        <v>380.9095030867321</v>
+      </c>
+      <c r="E57" t="n">
+        <v>380.5385466894313</v>
+      </c>
+      <c r="F57" t="n">
+        <v>778.0304621942015</v>
+      </c>
+      <c r="G57" t="n">
+        <v>283.2025939714183</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="3" t="n">
+        <v>43586</v>
+      </c>
+      <c r="B58" t="n">
+        <v>1035.527323913307</v>
+      </c>
+      <c r="C58" t="n">
+        <v>223.5341048171313</v>
+      </c>
+      <c r="D58" t="n">
+        <v>580.2869234755572</v>
+      </c>
+      <c r="E58" t="n">
+        <v>411.1979163159065</v>
+      </c>
+      <c r="F58" t="n">
+        <v>712.9322514452672</v>
+      </c>
+      <c r="G58" t="n">
+        <v>457.3476963871395</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:R58"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>dt</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>TCL</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>创维</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>华帝</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>小天鹅</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>格力</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>海尔</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>老板</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>dt</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>TCL</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>创维</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>华帝</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>小天鹅</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>格力</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>海尔</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>老板</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="3" t="n">
+        <v>43101</v>
+      </c>
+      <c r="B2" t="n">
+        <v>7.238570760000001</v>
+      </c>
+      <c r="C2" t="n">
+        <v>3.67978532</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1.0270273</v>
+      </c>
+      <c r="E2" t="n">
+        <v>2.90049827</v>
+      </c>
+      <c r="F2" t="n">
+        <v>4.9547958</v>
+      </c>
+      <c r="G2" t="n">
+        <v>18.45467201</v>
+      </c>
+      <c r="H2" t="n">
+        <v>1.10572742</v>
+      </c>
+      <c r="K2" s="3" t="n">
+        <v>43466</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0.3216063401444178</v>
+      </c>
+      <c r="M2" t="n">
+        <v>1.175944660815158</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0.4773657428580527</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0.4983007902293977</v>
+      </c>
+      <c r="P2" t="n">
+        <v>0.1389478674378468</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>0.2664525133438012</v>
+      </c>
+      <c r="R2" t="n">
+        <v>0.1487471749592679</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="3" t="n">
+        <v>43132</v>
+      </c>
+      <c r="B3" t="n">
+        <v>3.71431631</v>
+      </c>
+      <c r="C3" t="n">
+        <v>2.62669774</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.50326501</v>
+      </c>
+      <c r="E3" t="n">
+        <v>2.16714151</v>
+      </c>
+      <c r="F3" t="n">
+        <v>2.12721969</v>
+      </c>
+      <c r="G3" t="n">
+        <v>12.52308492</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0.45779078</v>
+      </c>
+      <c r="K3" s="3" t="n">
+        <v>43497</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0.3632495558785622</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0.1933558598181151</v>
+      </c>
+      <c r="N3" t="n">
+        <v>1.271250091477649</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0.2262798657758165</v>
+      </c>
+      <c r="P3" t="n">
+        <v>0.5272963461521927</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>0.3236499756962441</v>
+      </c>
+      <c r="R3" t="n">
+        <v>1.520110300168125</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="3" t="n">
+        <v>43160</v>
+      </c>
+      <c r="B4" t="n">
+        <v>4.28114164</v>
+      </c>
+      <c r="C4" t="n">
+        <v>2.09443739</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1.01385025</v>
+      </c>
+      <c r="E4" t="n">
+        <v>2.51623952</v>
+      </c>
+      <c r="F4" t="n">
+        <v>7.155495439999999</v>
+      </c>
+      <c r="G4" t="n">
+        <v>15.13054954</v>
+      </c>
+      <c r="H4" t="n">
+        <v>1.31551407</v>
+      </c>
+      <c r="K4" s="3" t="n">
+        <v>43525</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0.5419765041924658</v>
+      </c>
+      <c r="M4" t="n">
+        <v>1.03185540915119</v>
+      </c>
+      <c r="N4" t="n">
+        <v>1.167489616933073</v>
+      </c>
+      <c r="O4" t="n">
+        <v>0.1812239082867597</v>
+      </c>
+      <c r="P4" t="n">
+        <v>0.311821967983813</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>0.2664078055687067</v>
+      </c>
+      <c r="R4" t="n">
+        <v>0.6062373776055472</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="3" t="n">
+        <v>43191</v>
+      </c>
+      <c r="B5" t="n">
+        <v>5.18090868</v>
+      </c>
+      <c r="C5" t="n">
+        <v>1.87315909</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1.0181593</v>
+      </c>
+      <c r="E5" t="n">
+        <v>1.93850729</v>
+      </c>
+      <c r="F5" t="n">
+        <v>7.721227380000001</v>
+      </c>
+      <c r="G5" t="n">
+        <v>15.18195632</v>
+      </c>
+      <c r="H5" t="n">
+        <v>1.38044065</v>
+      </c>
+      <c r="K5" s="3" t="n">
+        <v>43556</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0.6833791519367214</v>
+      </c>
+      <c r="M5" t="n">
+        <v>1.134264981198153</v>
+      </c>
+      <c r="N5" t="n">
+        <v>1.011818180121716</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0.3792667707739186</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0.4344884154933406</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>0.3485946901999781</v>
+      </c>
+      <c r="R5" t="n">
+        <v>0.5918599977478209</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="3" t="n">
+        <v>43221</v>
+      </c>
+      <c r="B6" t="n">
+        <v>7.85768059</v>
+      </c>
+      <c r="C6" t="n">
+        <v>2.52203984</v>
+      </c>
+      <c r="D6" t="n">
+        <v>1.41240848</v>
+      </c>
+      <c r="E6" t="n">
+        <v>2.23583283</v>
+      </c>
+      <c r="F6" t="n">
+        <v>11.72210207</v>
+      </c>
+      <c r="G6" t="n">
+        <v>17.63453963</v>
+      </c>
+      <c r="H6" t="n">
+        <v>1.32492385</v>
+      </c>
+      <c r="K6" s="3" t="n">
+        <v>43586</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0.1065833308452158</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0.6129718672485367</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0.4062451253478743</v>
+      </c>
+      <c r="O6" t="n">
+        <v>0.3301296770027302</v>
+      </c>
+      <c r="P6" t="n">
+        <v>0.3333388360437646</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>0.2586701363181547</v>
+      </c>
+      <c r="R6" t="n">
+        <v>0.5210172267636364</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="3" t="n">
+        <v>43252</v>
+      </c>
+      <c r="B7" t="n">
+        <v>14.55886174</v>
+      </c>
+      <c r="C7" t="n">
+        <v>5.36629068</v>
+      </c>
+      <c r="D7" t="n">
+        <v>3.02876539</v>
+      </c>
+      <c r="E7" t="n">
+        <v>3.81011003</v>
+      </c>
+      <c r="F7" t="n">
+        <v>27.71188702</v>
+      </c>
+      <c r="G7" t="n">
+        <v>34.42567483999999</v>
+      </c>
+      <c r="H7" t="n">
+        <v>3.73672455</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="3" t="n">
+        <v>43282</v>
+      </c>
+      <c r="B8" t="n">
+        <v>9.735367720000001</v>
+      </c>
+      <c r="C8" t="n">
+        <v>2.8854464</v>
+      </c>
+      <c r="D8" t="n">
+        <v>1.69658571</v>
+      </c>
+      <c r="E8" t="n">
+        <v>1.74714464</v>
+      </c>
+      <c r="F8" t="n">
+        <v>18.27876388</v>
+      </c>
+      <c r="G8" t="n">
+        <v>20.20736881</v>
+      </c>
+      <c r="H8" t="n">
+        <v>1.98256281</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="3" t="n">
+        <v>43313</v>
+      </c>
+      <c r="B9" t="n">
+        <v>7.49521432</v>
+      </c>
+      <c r="C9" t="n">
+        <v>3.718441309999999</v>
+      </c>
+      <c r="D9" t="n">
+        <v>2.31221021</v>
+      </c>
+      <c r="E9" t="n">
+        <v>2.47621442</v>
+      </c>
+      <c r="F9" t="n">
+        <v>6.746678280000001</v>
+      </c>
+      <c r="G9" t="n">
+        <v>18.62603892</v>
+      </c>
+      <c r="H9" t="n">
+        <v>2.30895072</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="3" t="n">
+        <v>43344</v>
+      </c>
+      <c r="B10" t="n">
+        <v>6.23983575</v>
+      </c>
+      <c r="C10" t="n">
+        <v>3.63542974</v>
+      </c>
+      <c r="D10" t="n">
+        <v>1.73059012</v>
+      </c>
+      <c r="E10" t="n">
+        <v>2.85042235</v>
+      </c>
+      <c r="F10" t="n">
+        <v>3.873916830000001</v>
+      </c>
+      <c r="G10" t="n">
+        <v>17.80322169</v>
+      </c>
+      <c r="H10" t="n">
+        <v>1.82587724</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="3" t="n">
+        <v>43374</v>
+      </c>
+      <c r="B11" t="n">
+        <v>6.31722859</v>
+      </c>
+      <c r="C11" t="n">
+        <v>3.619707500000001</v>
+      </c>
+      <c r="D11" t="n">
+        <v>2.14592229</v>
+      </c>
+      <c r="E11" t="n">
+        <v>3.59718539</v>
+      </c>
+      <c r="F11" t="n">
+        <v>4.337537090000001</v>
+      </c>
+      <c r="G11" t="n">
+        <v>16.6419963</v>
+      </c>
+      <c r="H11" t="n">
+        <v>1.99419971</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="3" t="n">
+        <v>43405</v>
+      </c>
+      <c r="B12" t="n">
+        <v>14.58350877</v>
+      </c>
+      <c r="C12" t="n">
+        <v>9.50778395</v>
+      </c>
+      <c r="D12" t="n">
+        <v>3.65836856</v>
+      </c>
+      <c r="E12" t="n">
+        <v>7.41718899</v>
+      </c>
+      <c r="F12" t="n">
+        <v>15.28512768</v>
+      </c>
+      <c r="G12" t="n">
+        <v>45.80303012999998</v>
+      </c>
+      <c r="H12" t="n">
+        <v>4.607130209999999</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="3" t="n">
+        <v>43435</v>
+      </c>
+      <c r="B13" t="n">
+        <v>9.978958369999999</v>
+      </c>
+      <c r="C13" t="n">
+        <v>6.951374520000002</v>
+      </c>
+      <c r="D13" t="n">
+        <v>2.46112095</v>
+      </c>
+      <c r="E13" t="n">
+        <v>4.06900041</v>
+      </c>
+      <c r="F13" t="n">
+        <v>8.848181499999999</v>
+      </c>
+      <c r="G13" t="n">
+        <v>28.66872056</v>
+      </c>
+      <c r="H13" t="n">
+        <v>2.4502515</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="3" t="n">
+        <v>43466</v>
+      </c>
+      <c r="B14" t="n">
+        <v>9.566541009999998</v>
+      </c>
+      <c r="C14" t="n">
+        <v>8.007009219999999</v>
+      </c>
+      <c r="D14" t="n">
+        <v>1.51729495</v>
+      </c>
+      <c r="E14" t="n">
+        <v>4.345818850000001</v>
+      </c>
+      <c r="F14" t="n">
+        <v>5.64325411</v>
+      </c>
+      <c r="G14" t="n">
+        <v>23.37196575</v>
+      </c>
+      <c r="H14" t="n">
+        <v>1.27020125</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="3" t="n">
+        <v>43497</v>
+      </c>
+      <c r="B15" t="n">
+        <v>5.063540059999999</v>
+      </c>
+      <c r="C15" t="n">
+        <v>3.13458514</v>
+      </c>
+      <c r="D15" t="n">
+        <v>1.1430407</v>
+      </c>
+      <c r="E15" t="n">
+        <v>2.657522</v>
+      </c>
+      <c r="F15" t="n">
+        <v>3.24889486</v>
+      </c>
+      <c r="G15" t="n">
+        <v>16.57618105</v>
+      </c>
+      <c r="H15" t="n">
+        <v>1.15368326</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="3" t="n">
+        <v>43525</v>
+      </c>
+      <c r="B16" t="n">
+        <v>6.60141982</v>
+      </c>
+      <c r="C16" t="n">
+        <v>4.255593940000001</v>
+      </c>
+      <c r="D16" t="n">
+        <v>2.19750989</v>
+      </c>
+      <c r="E16" t="n">
+        <v>2.97224228</v>
+      </c>
+      <c r="F16" t="n">
+        <v>9.386736109999999</v>
+      </c>
+      <c r="G16" t="n">
+        <v>19.16144604</v>
+      </c>
+      <c r="H16" t="n">
+        <v>2.11302787</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="3" t="n">
+        <v>43556</v>
+      </c>
+      <c r="B17" t="n">
+        <v>8.721433659999999</v>
+      </c>
+      <c r="C17" t="n">
+        <v>3.997817850000001</v>
+      </c>
+      <c r="D17" t="n">
+        <v>2.048351390000001</v>
+      </c>
+      <c r="E17" t="n">
+        <v>2.67371869</v>
+      </c>
+      <c r="F17" t="n">
+        <v>11.07601123</v>
+      </c>
+      <c r="G17" t="n">
+        <v>20.47430568</v>
+      </c>
+      <c r="H17" t="n">
+        <v>2.19746825</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="3" t="n">
+        <v>43586</v>
+      </c>
+      <c r="B18" t="n">
+        <v>8.69517836</v>
+      </c>
+      <c r="C18" t="n">
+        <v>4.06797931</v>
+      </c>
+      <c r="D18" t="n">
+        <v>1.98619254</v>
+      </c>
+      <c r="E18" t="n">
+        <v>2.9739476</v>
+      </c>
+      <c r="F18" t="n">
+        <v>15.62953393</v>
+      </c>
+      <c r="G18" t="n">
+        <v>22.1960684</v>
+      </c>
+      <c r="H18" t="n">
+        <v>2.015232</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="inlineStr">
+        <is>
+          <t>dt</t>
+        </is>
+      </c>
+      <c r="B21" s="1" t="inlineStr">
+        <is>
+          <t>TCL</t>
+        </is>
+      </c>
+      <c r="C21" s="1" t="inlineStr">
+        <is>
+          <t>创维</t>
+        </is>
+      </c>
+      <c r="D21" s="1" t="inlineStr">
+        <is>
+          <t>华帝</t>
+        </is>
+      </c>
+      <c r="E21" s="1" t="inlineStr">
+        <is>
+          <t>小天鹅</t>
+        </is>
+      </c>
+      <c r="F21" s="1" t="inlineStr">
+        <is>
+          <t>格力</t>
+        </is>
+      </c>
+      <c r="G21" s="1" t="inlineStr">
+        <is>
+          <t>海尔</t>
+        </is>
+      </c>
+      <c r="H21" s="1" t="inlineStr">
+        <is>
+          <t>老板</t>
+        </is>
+      </c>
+      <c r="K21" s="1" t="inlineStr">
+        <is>
+          <t>dt</t>
+        </is>
+      </c>
+      <c r="L21" s="1" t="inlineStr">
+        <is>
+          <t>TCL</t>
+        </is>
+      </c>
+      <c r="M21" s="1" t="inlineStr">
+        <is>
+          <t>创维</t>
+        </is>
+      </c>
+      <c r="N21" s="1" t="inlineStr">
+        <is>
+          <t>华帝</t>
+        </is>
+      </c>
+      <c r="O21" s="1" t="inlineStr">
+        <is>
+          <t>小天鹅</t>
+        </is>
+      </c>
+      <c r="P21" s="1" t="inlineStr">
+        <is>
+          <t>格力</t>
+        </is>
+      </c>
+      <c r="Q21" s="1" t="inlineStr">
+        <is>
+          <t>海尔</t>
+        </is>
+      </c>
+      <c r="R21" s="1" t="inlineStr">
+        <is>
+          <t>老板</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="3" t="n">
+        <v>43101</v>
+      </c>
+      <c r="B22" t="n">
+        <v>0.01258299</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0.00205915</v>
+      </c>
+      <c r="D22" t="n">
+        <v>0.0013567</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0.00190175</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0.007103689999999999</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0.01774523</v>
+      </c>
+      <c r="H22" t="n">
+        <v>0.00076056</v>
+      </c>
+      <c r="K22" s="3" t="n">
+        <v>43466</v>
+      </c>
+      <c r="L22" t="n">
+        <v>0.1069864952606654</v>
+      </c>
+      <c r="M22" t="n">
+        <v>1.379666367190346</v>
+      </c>
+      <c r="N22" t="n">
+        <v>0.4895039433920541</v>
+      </c>
+      <c r="O22" t="n">
+        <v>0.5634073879321677</v>
+      </c>
+      <c r="P22" t="n">
+        <v>-0.1793180727199526</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>-0.02932506369317278</v>
+      </c>
+      <c r="R22" t="n">
+        <v>5.815767329336278</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="3" t="n">
+        <v>43132</v>
+      </c>
+      <c r="B23" t="n">
+        <v>0.004700279999999999</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0.001651</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0.00052439</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0.00150127</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0.00273475</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0.01159252</v>
+      </c>
+      <c r="H23" t="n">
+        <v>0.00028282</v>
+      </c>
+      <c r="K23" s="3" t="n">
+        <v>43497</v>
+      </c>
+      <c r="L23" t="n">
+        <v>0.8890534180942415</v>
+      </c>
+      <c r="M23" t="n">
+        <v>0.451441550575409</v>
+      </c>
+      <c r="N23" t="n">
+        <v>1.635957970213009</v>
+      </c>
+      <c r="O23" t="n">
+        <v>0.2617716999607</v>
+      </c>
+      <c r="P23" t="n">
+        <v>0.1460974494926408</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>0.09026337672913254</v>
+      </c>
+      <c r="R23" t="n">
+        <v>13.07584329255357</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="3" t="n">
+        <v>43160</v>
+      </c>
+      <c r="B24" t="n">
+        <v>0.007336170000000001</v>
+      </c>
+      <c r="C24" t="n">
+        <v>0.00140337</v>
+      </c>
+      <c r="D24" t="n">
+        <v>0.00116885</v>
+      </c>
+      <c r="E24" t="n">
+        <v>0.00173831</v>
+      </c>
+      <c r="F24" t="n">
+        <v>0.00515241</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0.01421304</v>
+      </c>
+      <c r="H24" t="n">
+        <v>0.0008712800000000001</v>
+      </c>
+      <c r="K24" s="3" t="n">
+        <v>43525</v>
+      </c>
+      <c r="L24" t="n">
+        <v>0.6363756565074143</v>
+      </c>
+      <c r="M24" t="n">
+        <v>1.222592758859032</v>
+      </c>
+      <c r="N24" t="n">
+        <v>0.993138554989947</v>
+      </c>
+      <c r="O24" t="n">
+        <v>0.1834482917316242</v>
+      </c>
+      <c r="P24" t="n">
+        <v>0.1975405683942075</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>0.04241105351142371</v>
+      </c>
+      <c r="R24" t="n">
+        <v>8.766183086952527</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="3" t="n">
+        <v>43191</v>
+      </c>
+      <c r="B25" t="n">
+        <v>0.00937903</v>
+      </c>
+      <c r="C25" t="n">
+        <v>0.00123705</v>
+      </c>
+      <c r="D25" t="n">
+        <v>0.00107089</v>
+      </c>
+      <c r="E25" t="n">
+        <v>0.00128294</v>
+      </c>
+      <c r="F25" t="n">
+        <v>0.00830444</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0.013737</v>
+      </c>
+      <c r="H25" t="n">
+        <v>0.0009313699999999999</v>
+      </c>
+      <c r="K25" s="3" t="n">
+        <v>43556</v>
+      </c>
+      <c r="L25" t="n">
+        <v>0.6376874794088516</v>
+      </c>
+      <c r="M25" t="n">
+        <v>1.480562628834727</v>
+      </c>
+      <c r="N25" t="n">
+        <v>1.215605711137465</v>
+      </c>
+      <c r="O25" t="n">
+        <v>0.4496079317816886</v>
+      </c>
+      <c r="P25" t="n">
+        <v>0.1134140291217711</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>0.1800495013467276</v>
+      </c>
+      <c r="R25" t="n">
+        <v>8.746663517184363</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="3" t="n">
+        <v>43221</v>
+      </c>
+      <c r="B26" t="n">
+        <v>0.01179875</v>
+      </c>
+      <c r="C26" t="n">
+        <v>0.00157658</v>
+      </c>
+      <c r="D26" t="n">
+        <v>0.00108458</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0.00148415</v>
+      </c>
+      <c r="F26" t="n">
+        <v>0.01460398</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0.01632155</v>
+      </c>
+      <c r="H26" t="n">
+        <v>0.00086462</v>
+      </c>
+      <c r="K26" s="3" t="n">
+        <v>43586</v>
+      </c>
+      <c r="L26" t="n">
+        <v>0.4254959211780907</v>
+      </c>
+      <c r="M26" t="n">
+        <v>0.846623704474242</v>
+      </c>
+      <c r="N26" t="n">
+        <v>0.9044422725847798</v>
+      </c>
+      <c r="O26" t="n">
+        <v>0.159101169019304</v>
+      </c>
+      <c r="P26" t="n">
+        <v>-0.2091559972007629</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>-0.06110265262796755</v>
+      </c>
+      <c r="R26" t="n">
+        <v>3.507679674307789</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="3" t="n">
+        <v>43252</v>
+      </c>
+      <c r="B27" t="n">
+        <v>0.01864382</v>
+      </c>
+      <c r="C27" t="n">
+        <v>0.00350908</v>
+      </c>
+      <c r="D27" t="n">
+        <v>0.00216671</v>
+      </c>
+      <c r="E27" t="n">
+        <v>0.00241775</v>
+      </c>
+      <c r="F27" t="n">
+        <v>0.02219915</v>
+      </c>
+      <c r="G27" t="n">
+        <v>0.02530896000000001</v>
+      </c>
+      <c r="H27" t="n">
+        <v>0.007565529999999999</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="3" t="n">
+        <v>43282</v>
+      </c>
+      <c r="B28" t="n">
+        <v>0.01358166</v>
+      </c>
+      <c r="C28" t="n">
+        <v>0.00210618</v>
+      </c>
+      <c r="D28" t="n">
+        <v>0.00187786</v>
+      </c>
+      <c r="E28" t="n">
+        <v>0.00121106</v>
+      </c>
+      <c r="F28" t="n">
+        <v>0.01480623</v>
+      </c>
+      <c r="G28" t="n">
+        <v>0.01579215</v>
+      </c>
+      <c r="H28" t="n">
+        <v>0.00426319</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="3" t="n">
+        <v>43313</v>
+      </c>
+      <c r="B29" t="n">
+        <v>0.01045134</v>
+      </c>
+      <c r="C29" t="n">
+        <v>0.00246143</v>
+      </c>
+      <c r="D29" t="n">
+        <v>0.00172125</v>
+      </c>
+      <c r="E29" t="n">
+        <v>0.00162393</v>
+      </c>
+      <c r="F29" t="n">
+        <v>0.00550112</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0.01464584</v>
+      </c>
+      <c r="H29" t="n">
+        <v>0.005383209999999999</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="3" t="n">
+        <v>43344</v>
+      </c>
+      <c r="B30" t="n">
+        <v>0.01021178</v>
+      </c>
+      <c r="C30" t="n">
+        <v>0.00231477</v>
+      </c>
+      <c r="D30" t="n">
+        <v>0.00149843</v>
+      </c>
+      <c r="E30" t="n">
+        <v>0.00188606</v>
+      </c>
+      <c r="F30" t="n">
+        <v>0.0034635</v>
+      </c>
+      <c r="G30" t="n">
+        <v>0.01410257</v>
+      </c>
+      <c r="H30" t="n">
+        <v>0.00463612</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="3" t="n">
+        <v>43374</v>
+      </c>
+      <c r="B31" t="n">
+        <v>0.0125573</v>
+      </c>
+      <c r="C31" t="n">
+        <v>0.00243692</v>
+      </c>
+      <c r="D31" t="n">
+        <v>0.0018497</v>
+      </c>
+      <c r="E31" t="n">
+        <v>0.00245032</v>
+      </c>
+      <c r="F31" t="n">
+        <v>0.00440276</v>
+      </c>
+      <c r="G31" t="n">
+        <v>0.0147938</v>
+      </c>
+      <c r="H31" t="n">
+        <v>0.00935597</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="3" t="n">
+        <v>43405</v>
+      </c>
+      <c r="B32" t="n">
+        <v>0.02441554</v>
+      </c>
+      <c r="C32" t="n">
+        <v>0.005559409999999999</v>
+      </c>
+      <c r="D32" t="n">
+        <v>0.0029452</v>
+      </c>
+      <c r="E32" t="n">
+        <v>0.00437707</v>
+      </c>
+      <c r="F32" t="n">
+        <v>0.0114011</v>
+      </c>
+      <c r="G32" t="n">
+        <v>0.03134196</v>
+      </c>
+      <c r="H32" t="n">
+        <v>0.009972700000000001</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="3" t="n">
+        <v>43435</v>
+      </c>
+      <c r="B33" t="n">
+        <v>0.02041776</v>
+      </c>
+      <c r="C33" t="n">
+        <v>0.00414313</v>
+      </c>
+      <c r="D33" t="n">
+        <v>0.00285157</v>
+      </c>
+      <c r="E33" t="n">
+        <v>0.00260342</v>
+      </c>
+      <c r="F33" t="n">
+        <v>0.01010431</v>
+      </c>
+      <c r="G33" t="n">
+        <v>0.02138443</v>
+      </c>
+      <c r="H33" t="n">
+        <v>0.0082716</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="3" t="n">
+        <v>43466</v>
+      </c>
+      <c r="B34" t="n">
+        <v>0.0139292</v>
+      </c>
+      <c r="C34" t="n">
+        <v>0.00490009</v>
+      </c>
+      <c r="D34" t="n">
+        <v>0.00202081</v>
+      </c>
+      <c r="E34" t="n">
+        <v>0.00297321</v>
+      </c>
+      <c r="F34" t="n">
+        <v>0.005829869999999999</v>
+      </c>
+      <c r="G34" t="n">
+        <v>0.01722485</v>
+      </c>
+      <c r="H34" t="n">
+        <v>0.0051838</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="3" t="n">
+        <v>43497</v>
+      </c>
+      <c r="B35" t="n">
+        <v>0.008879080000000001</v>
+      </c>
+      <c r="C35" t="n">
+        <v>0.00239633</v>
+      </c>
+      <c r="D35" t="n">
+        <v>0.00138227</v>
+      </c>
+      <c r="E35" t="n">
+        <v>0.00189426</v>
+      </c>
+      <c r="F35" t="n">
+        <v>0.00313429</v>
+      </c>
+      <c r="G35" t="n">
+        <v>0.0126389</v>
+      </c>
+      <c r="H35" t="n">
+        <v>0.00398093</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="3" t="n">
+        <v>43525</v>
+      </c>
+      <c r="B36" t="n">
+        <v>0.01200473</v>
+      </c>
+      <c r="C36" t="n">
+        <v>0.00311912</v>
+      </c>
+      <c r="D36" t="n">
+        <v>0.00232968</v>
+      </c>
+      <c r="E36" t="n">
+        <v>0.0020572</v>
+      </c>
+      <c r="F36" t="n">
+        <v>0.00617022</v>
+      </c>
+      <c r="G36" t="n">
+        <v>0.01481583</v>
+      </c>
+      <c r="H36" t="n">
+        <v>0.008509079999999999</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="3" t="n">
+        <v>43556</v>
+      </c>
+      <c r="B37" t="n">
+        <v>0.01535992</v>
+      </c>
+      <c r="C37" t="n">
+        <v>0.00306858</v>
+      </c>
+      <c r="D37" t="n">
+        <v>0.00237267</v>
+      </c>
+      <c r="E37" t="n">
+        <v>0.00185976</v>
+      </c>
+      <c r="F37" t="n">
+        <v>0.009246280000000001</v>
+      </c>
+      <c r="G37" t="n">
+        <v>0.01621034</v>
+      </c>
+      <c r="H37" t="n">
+        <v>0.009077749999999999</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="3" t="n">
+        <v>43586</v>
+      </c>
+      <c r="B38" t="n">
+        <v>0.01681907</v>
+      </c>
+      <c r="C38" t="n">
+        <v>0.00291135</v>
+      </c>
+      <c r="D38" t="n">
+        <v>0.00206552</v>
+      </c>
+      <c r="E38" t="n">
+        <v>0.00172028</v>
+      </c>
+      <c r="F38" t="n">
+        <v>0.01154947</v>
+      </c>
+      <c r="G38" t="n">
+        <v>0.01532426</v>
+      </c>
+      <c r="H38" t="n">
+        <v>0.00389743</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="inlineStr">
+        <is>
+          <t>dt</t>
+        </is>
+      </c>
+      <c r="B41" s="1" t="inlineStr">
+        <is>
+          <t>TCL</t>
+        </is>
+      </c>
+      <c r="C41" s="1" t="inlineStr">
+        <is>
+          <t>创维</t>
+        </is>
+      </c>
+      <c r="D41" s="1" t="inlineStr">
+        <is>
+          <t>华帝</t>
+        </is>
+      </c>
+      <c r="E41" s="1" t="inlineStr">
+        <is>
+          <t>小天鹅</t>
+        </is>
+      </c>
+      <c r="F41" s="1" t="inlineStr">
+        <is>
+          <t>格力</t>
+        </is>
+      </c>
+      <c r="G41" s="1" t="inlineStr">
+        <is>
+          <t>海尔</t>
+        </is>
+      </c>
+      <c r="H41" s="1" t="inlineStr">
+        <is>
+          <t>老板</t>
+        </is>
+      </c>
+      <c r="K41" s="1" t="inlineStr">
+        <is>
+          <t>dt</t>
+        </is>
+      </c>
+      <c r="L41" s="1" t="inlineStr">
+        <is>
+          <t>TCL</t>
+        </is>
+      </c>
+      <c r="M41" s="1" t="inlineStr">
+        <is>
+          <t>创维</t>
+        </is>
+      </c>
+      <c r="N41" s="1" t="inlineStr">
+        <is>
+          <t>华帝</t>
+        </is>
+      </c>
+      <c r="O41" s="1" t="inlineStr">
+        <is>
+          <t>小天鹅</t>
+        </is>
+      </c>
+      <c r="P41" s="1" t="inlineStr">
+        <is>
+          <t>格力</t>
+        </is>
+      </c>
+      <c r="Q41" s="1" t="inlineStr">
+        <is>
+          <t>海尔</t>
+        </is>
+      </c>
+      <c r="R41" s="1" t="inlineStr">
+        <is>
+          <t>老板</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="3" t="n">
+        <v>43101</v>
+      </c>
+      <c r="B42" t="n">
+        <v>575.2663524329273</v>
+      </c>
+      <c r="C42" t="n">
+        <v>1787.040924653376</v>
+      </c>
+      <c r="D42" t="n">
+        <v>757.0039802461855</v>
+      </c>
+      <c r="E42" t="n">
+        <v>1525.173271986328</v>
+      </c>
+      <c r="F42" t="n">
+        <v>697.4960619058546</v>
+      </c>
+      <c r="G42" t="n">
+        <v>1039.97930767874</v>
+      </c>
+      <c r="H42" t="n">
+        <v>1453.833254444094</v>
+      </c>
+      <c r="K42" s="3" t="n">
+        <v>43466</v>
+      </c>
+      <c r="L42" t="n">
+        <v>0.1938775638208805</v>
+      </c>
+      <c r="M42" t="n">
+        <v>-0.08560935649803714</v>
+      </c>
+      <c r="N42" t="n">
+        <v>-0.008149156360310772</v>
+      </c>
+      <c r="O42" t="n">
+        <v>-0.04164403865897226</v>
+      </c>
+      <c r="P42" t="n">
+        <v>0.3878066880461413</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>0.3047133143896068</v>
+      </c>
+      <c r="R42" t="n">
+        <v>-0.8314573958511091</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="3" t="n">
+        <v>43132</v>
+      </c>
+      <c r="B43" t="n">
+        <v>790.2329882475087</v>
+      </c>
+      <c r="C43" t="n">
+        <v>1590.973797698365</v>
+      </c>
+      <c r="D43" t="n">
+        <v>959.7151166116821</v>
+      </c>
+      <c r="E43" t="n">
+        <v>1443.538810473799</v>
+      </c>
+      <c r="F43" t="n">
+        <v>777.8479531949904</v>
+      </c>
+      <c r="G43" t="n">
+        <v>1080.272875957945</v>
+      </c>
+      <c r="H43" t="n">
+        <v>1618.664804469274</v>
+      </c>
+      <c r="K43" s="3" t="n">
+        <v>43497</v>
+      </c>
+      <c r="L43" t="n">
+        <v>-0.2783425059234869</v>
+      </c>
+      <c r="M43" t="n">
+        <v>-0.177813354354489</v>
+      </c>
+      <c r="N43" t="n">
+        <v>-0.138358760972918</v>
+      </c>
+      <c r="O43" t="n">
+        <v>-0.02812857047434891</v>
+      </c>
+      <c r="P43" t="n">
+        <v>0.3326060073061872</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>0.2140644214495107</v>
+      </c>
+      <c r="R43" t="n">
+        <v>-0.8209620377415455</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="3" t="n">
+        <v>43160</v>
+      </c>
+      <c r="B44" t="n">
+        <v>583.5663077600437</v>
+      </c>
+      <c r="C44" t="n">
+        <v>1492.434204807</v>
+      </c>
+      <c r="D44" t="n">
+        <v>867.3912392522564</v>
+      </c>
+      <c r="E44" t="n">
+        <v>1447.5205918392</v>
+      </c>
+      <c r="F44" t="n">
+        <v>1388.766701407691</v>
+      </c>
+      <c r="G44" t="n">
+        <v>1064.554067250919</v>
+      </c>
+      <c r="H44" t="n">
+        <v>1509.863729225966</v>
+      </c>
+      <c r="K44" s="3" t="n">
+        <v>43525</v>
+      </c>
+      <c r="L44" t="n">
+        <v>-0.05768794710404634</v>
+      </c>
+      <c r="M44" t="n">
+        <v>-0.08581749803133365</v>
+      </c>
+      <c r="N44" t="n">
+        <v>0.08747563560326865</v>
+      </c>
+      <c r="O44" t="n">
+        <v>-0.001879578060491327</v>
+      </c>
+      <c r="P44" t="n">
+        <v>0.09543008613298687</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>0.2148833239082959</v>
+      </c>
+      <c r="R44" t="n">
+        <v>-0.8355306916423207</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="3" t="n">
+        <v>43191</v>
+      </c>
+      <c r="B45" t="n">
+        <v>552.3928039466767</v>
+      </c>
+      <c r="C45" t="n">
+        <v>1514.214534578231</v>
+      </c>
+      <c r="D45" t="n">
+        <v>950.7599286574721</v>
+      </c>
+      <c r="E45" t="n">
+        <v>1510.988269131838</v>
+      </c>
+      <c r="F45" t="n">
+        <v>929.7709875680963</v>
+      </c>
+      <c r="G45" t="n">
+        <v>1105.187182063042</v>
+      </c>
+      <c r="H45" t="n">
+        <v>1482.161385915372</v>
+      </c>
+      <c r="K45" s="3" t="n">
+        <v>43556</v>
+      </c>
+      <c r="L45" t="n">
+        <v>0.02790011714833596</v>
+      </c>
+      <c r="M45" t="n">
+        <v>-0.1396044766663486</v>
+      </c>
+      <c r="N45" t="n">
+        <v>-0.09197824775019525</v>
+      </c>
+      <c r="O45" t="n">
+        <v>-0.04852426608987626</v>
+      </c>
+      <c r="P45" t="n">
+        <v>0.2883692660355857</v>
+      </c>
+      <c r="Q45" t="n">
+        <v>0.1428289140929246</v>
+      </c>
+      <c r="R45" t="n">
+        <v>-0.8366764180438558</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="3" t="n">
+        <v>43221</v>
+      </c>
+      <c r="B46" t="n">
+        <v>665.9756830172688</v>
+      </c>
+      <c r="C46" t="n">
+        <v>1599.690367758059</v>
+      </c>
+      <c r="D46" t="n">
+        <v>1302.263069575319</v>
+      </c>
+      <c r="E46" t="n">
+        <v>1506.473624633628</v>
+      </c>
+      <c r="F46" t="n">
+        <v>802.6648947752599</v>
+      </c>
+      <c r="G46" t="n">
+        <v>1080.445155637792</v>
+      </c>
+      <c r="H46" t="n">
+        <v>1532.377055816428</v>
+      </c>
+      <c r="K46" s="3" t="n">
+        <v>43586</v>
+      </c>
+      <c r="L46" t="n">
+        <v>-0.2237204509636983</v>
+      </c>
+      <c r="M46" t="n">
+        <v>-0.1265292093129656</v>
+      </c>
+      <c r="N46" t="n">
+        <v>-0.2615974001463084</v>
+      </c>
+      <c r="O46" t="n">
+        <v>0.1475527007949879</v>
+      </c>
+      <c r="P46" t="n">
+        <v>0.6859694596207802</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>0.3405833341005426</v>
+      </c>
+      <c r="R46" t="n">
+        <v>-0.6625720244868092</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="3" t="n">
+        <v>43252</v>
+      </c>
+      <c r="B47" t="n">
+        <v>780.8947812197285</v>
+      </c>
+      <c r="C47" t="n">
+        <v>1529.258574897124</v>
+      </c>
+      <c r="D47" t="n">
+        <v>1397.863761186315</v>
+      </c>
+      <c r="E47" t="n">
+        <v>1575.890819977252</v>
+      </c>
+      <c r="F47" t="n">
+        <v>1248.330995556136</v>
+      </c>
+      <c r="G47" t="n">
+        <v>1360.216889196552</v>
+      </c>
+      <c r="H47" t="n">
+        <v>493.914444857135</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="3" t="n">
+        <v>43282</v>
+      </c>
+      <c r="B48" t="n">
+        <v>716.8024910062542</v>
+      </c>
+      <c r="C48" t="n">
+        <v>1369.990409176803</v>
+      </c>
+      <c r="D48" t="n">
+        <v>903.4676227194785</v>
+      </c>
+      <c r="E48" t="n">
+        <v>1442.657374531402</v>
+      </c>
+      <c r="F48" t="n">
+        <v>1234.531942297263</v>
+      </c>
+      <c r="G48" t="n">
+        <v>1279.583135291901</v>
+      </c>
+      <c r="H48" t="n">
+        <v>465.0420952385421</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="3" t="n">
+        <v>43313</v>
+      </c>
+      <c r="B49" t="n">
+        <v>717.1534291296618</v>
+      </c>
+      <c r="C49" t="n">
+        <v>1510.683346672463</v>
+      </c>
+      <c r="D49" t="n">
+        <v>1343.332002904866</v>
+      </c>
+      <c r="E49" t="n">
+        <v>1524.828299249352</v>
+      </c>
+      <c r="F49" t="n">
+        <v>1226.419034669304</v>
+      </c>
+      <c r="G49" t="n">
+        <v>1271.763102696738</v>
+      </c>
+      <c r="H49" t="n">
+        <v>428.9170810724456</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="3" t="n">
+        <v>43344</v>
+      </c>
+      <c r="B50" t="n">
+        <v>611.042908288271</v>
+      </c>
+      <c r="C50" t="n">
+        <v>1570.536053257991</v>
+      </c>
+      <c r="D50" t="n">
+        <v>1154.935579239604</v>
+      </c>
+      <c r="E50" t="n">
+        <v>1511.310536250172</v>
+      </c>
+      <c r="F50" t="n">
+        <v>1118.497713295799</v>
+      </c>
+      <c r="G50" t="n">
+        <v>1262.40973737411</v>
+      </c>
+      <c r="H50" t="n">
+        <v>393.8373553747531</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="3" t="n">
+        <v>43374</v>
+      </c>
+      <c r="B51" t="n">
+        <v>503.0722042158744</v>
+      </c>
+      <c r="C51" t="n">
+        <v>1485.36164502733</v>
+      </c>
+      <c r="D51" t="n">
+        <v>1160.146126398875</v>
+      </c>
+      <c r="E51" t="n">
+        <v>1468.047189754808</v>
+      </c>
+      <c r="F51" t="n">
+        <v>985.1859038421354</v>
+      </c>
+      <c r="G51" t="n">
+        <v>1124.930464113344</v>
+      </c>
+      <c r="H51" t="n">
+        <v>213.1472963252341</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="3" t="n">
+        <v>43405</v>
+      </c>
+      <c r="B52" t="n">
+        <v>597.3043713143351</v>
+      </c>
+      <c r="C52" t="n">
+        <v>1710.214564135403</v>
+      </c>
+      <c r="D52" t="n">
+        <v>1242.146054597311</v>
+      </c>
+      <c r="E52" t="n">
+        <v>1694.555716495281</v>
+      </c>
+      <c r="F52" t="n">
+        <v>1340.671310663006</v>
+      </c>
+      <c r="G52" t="n">
+        <v>1461.396483500074</v>
+      </c>
+      <c r="H52" t="n">
+        <v>461.974210594924</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="3" t="n">
+        <v>43435</v>
+      </c>
+      <c r="B53" t="n">
+        <v>488.7391354389512</v>
+      </c>
+      <c r="C53" t="n">
+        <v>1677.807483714004</v>
+      </c>
+      <c r="D53" t="n">
+        <v>863.075761773339</v>
+      </c>
+      <c r="E53" t="n">
+        <v>1562.944284825345</v>
+      </c>
+      <c r="F53" t="n">
+        <v>875.6838913295414</v>
+      </c>
+      <c r="G53" t="n">
+        <v>1340.635245363098</v>
+      </c>
+      <c r="H53" t="n">
+        <v>296.2246119251415</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="3" t="n">
+        <v>43466</v>
+      </c>
+      <c r="B54" t="n">
+        <v>686.7975913907474</v>
+      </c>
+      <c r="C54" t="n">
+        <v>1634.053501058143</v>
+      </c>
+      <c r="D54" t="n">
+        <v>750.8350364457817</v>
+      </c>
+      <c r="E54" t="n">
+        <v>1461.658897286099</v>
+      </c>
+      <c r="F54" t="n">
+        <v>967.9896995987905</v>
+      </c>
+      <c r="G54" t="n">
+        <v>1356.874849418137</v>
+      </c>
+      <c r="H54" t="n">
+        <v>245.0328427022648</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="3" t="n">
+        <v>43497</v>
+      </c>
+      <c r="B55" t="n">
+        <v>570.2775580352918</v>
+      </c>
+      <c r="C55" t="n">
+        <v>1308.077410039519</v>
+      </c>
+      <c r="D55" t="n">
+        <v>826.9301221903103</v>
+      </c>
+      <c r="E55" t="n">
+        <v>1402.934127310929</v>
+      </c>
+      <c r="F55" t="n">
+        <v>1036.564855198466</v>
+      </c>
+      <c r="G55" t="n">
+        <v>1311.520864157482</v>
+      </c>
+      <c r="H55" t="n">
+        <v>289.8024481716584</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="3" t="n">
+        <v>43525</v>
+      </c>
+      <c r="B56" t="n">
+        <v>549.9015654662787</v>
+      </c>
+      <c r="C56" t="n">
+        <v>1364.35723537408</v>
+      </c>
+      <c r="D56" t="n">
+        <v>943.2668392225543</v>
+      </c>
+      <c r="E56" t="n">
+        <v>1444.79986389267</v>
+      </c>
+      <c r="F56" t="n">
+        <v>1521.296827341651</v>
+      </c>
+      <c r="G56" t="n">
+        <v>1293.308983701892</v>
+      </c>
+      <c r="H56" t="n">
+        <v>248.326243260141</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="3" t="n">
+        <v>43556</v>
+      </c>
+      <c r="B57" t="n">
+        <v>567.8046278886868</v>
+      </c>
+      <c r="C57" t="n">
+        <v>1302.823406917858</v>
+      </c>
+      <c r="D57" t="n">
+        <v>863.3106963884571</v>
+      </c>
+      <c r="E57" t="n">
+        <v>1437.668672301803</v>
+      </c>
+      <c r="F57" t="n">
+        <v>1197.88836483429</v>
+      </c>
+      <c r="G57" t="n">
+        <v>1263.039867146525</v>
+      </c>
+      <c r="H57" t="n">
+        <v>242.0719065847815</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="3" t="n">
+        <v>43586</v>
+      </c>
+      <c r="B58" t="n">
+        <v>516.9833028817884</v>
+      </c>
+      <c r="C58" t="n">
+        <v>1397.282810380064</v>
+      </c>
+      <c r="D58" t="n">
+        <v>961.5944362678647</v>
+      </c>
+      <c r="E58" t="n">
+        <v>1728.757876624735</v>
+      </c>
+      <c r="F58" t="n">
+        <v>1353.268498900815</v>
+      </c>
+      <c r="G58" t="n">
+        <v>1448.426769057691</v>
+      </c>
+      <c r="H58" t="n">
+        <v>517.0668876670011</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N58"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>dt</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>九阳</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>科沃斯</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>美的</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>苏泊尔</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>飞科</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>dt</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>九阳</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>科沃斯</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>美的</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>苏泊尔</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>飞科</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="3" t="n">
+        <v>43101</v>
+      </c>
+      <c r="B2" t="n">
+        <v>3.41535073</v>
+      </c>
+      <c r="C2" t="n">
+        <v>1.32721735</v>
+      </c>
+      <c r="D2" t="n">
+        <v>24.10372081</v>
+      </c>
+      <c r="E2" t="n">
+        <v>6.06470653</v>
+      </c>
+      <c r="F2" t="n">
+        <v>1.75372832</v>
+      </c>
+      <c r="I2" s="3" t="n">
+        <v>43466</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0.3940301352300644</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0.6198388229328076</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0.3051756505969918</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0.4125827371238022</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0.3992072044545645</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="3" t="n">
+        <v>43132</v>
+      </c>
+      <c r="B3" t="n">
+        <v>2.66839599</v>
+      </c>
+      <c r="C3" t="n">
+        <v>2.77933958</v>
+      </c>
+      <c r="D3" t="n">
+        <v>14.7604321</v>
+      </c>
+      <c r="E3" t="n">
+        <v>3.68238066</v>
+      </c>
+      <c r="F3" t="n">
+        <v>1.89611964</v>
+      </c>
+      <c r="I3" s="3" t="n">
+        <v>43497</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0.8674939809064843</v>
+      </c>
+      <c r="K3" t="n">
+        <v>-0.3740989145342219</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0.6017916040547344</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0.9015923057775348</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0.6100443271607061</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="3" t="n">
+        <v>43160</v>
+      </c>
+      <c r="B4" t="n">
+        <v>3.24960309</v>
+      </c>
+      <c r="C4" t="n">
+        <v>1.25875432</v>
+      </c>
+      <c r="D4" t="n">
+        <v>23.11624514</v>
+      </c>
+      <c r="E4" t="n">
+        <v>4.21222965</v>
+      </c>
+      <c r="F4" t="n">
+        <v>2.05903467</v>
+      </c>
+      <c r="I4" s="3" t="n">
+        <v>43525</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0.7384416784266412</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0.3682133301437249</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0.5458623424167406</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0.9030756145976038</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0.2545634309304758</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="3" t="n">
+        <v>43191</v>
+      </c>
+      <c r="B5" t="n">
+        <v>3.03826022</v>
+      </c>
+      <c r="C5" t="n">
+        <v>1.30790207</v>
+      </c>
+      <c r="D5" t="n">
+        <v>23.84094148</v>
+      </c>
+      <c r="E5" t="n">
+        <v>4.134953619999999</v>
+      </c>
+      <c r="F5" t="n">
+        <v>1.70057292</v>
+      </c>
+      <c r="I5" s="3" t="n">
+        <v>43556</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0.7900618565186626</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0.247417308545127</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0.5584503930421125</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0.6402934792772843</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0.306738737201578</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="3" t="n">
+        <v>43221</v>
+      </c>
+      <c r="B6" t="n">
+        <v>3.66485961</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.77171379</v>
+      </c>
+      <c r="D6" t="n">
+        <v>29.61587975999999</v>
+      </c>
+      <c r="E6" t="n">
+        <v>4.3077299</v>
+      </c>
+      <c r="F6" t="n">
+        <v>1.32440551</v>
+      </c>
+      <c r="I6" s="3" t="n">
+        <v>43586</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0.3885139900352146</v>
+      </c>
+      <c r="K6" t="n">
+        <v>1.131176222728896</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0.6306817515253178</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0.3899240084667335</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0.4571957421107375</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="3" t="n">
+        <v>43252</v>
+      </c>
+      <c r="B7" t="n">
+        <v>5.783472590000001</v>
+      </c>
+      <c r="C7" t="n">
+        <v>2.15971243</v>
+      </c>
+      <c r="D7" t="n">
+        <v>51.66700251</v>
+      </c>
+      <c r="E7" t="n">
+        <v>6.69080612</v>
+      </c>
+      <c r="F7" t="n">
+        <v>2.731393209999999</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="3" t="n">
+        <v>43282</v>
+      </c>
+      <c r="B8" t="n">
+        <v>4.123020390000001</v>
+      </c>
+      <c r="C8" t="n">
+        <v>1.23548794</v>
+      </c>
+      <c r="D8" t="n">
+        <v>34.62531282</v>
+      </c>
+      <c r="E8" t="n">
+        <v>5.80560101</v>
+      </c>
+      <c r="F8" t="n">
+        <v>2.11875966</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="3" t="n">
+        <v>43313</v>
+      </c>
+      <c r="B9" t="n">
+        <v>4.45535308</v>
+      </c>
+      <c r="C9" t="n">
+        <v>1.45349009</v>
+      </c>
+      <c r="D9" t="n">
+        <v>25.96469617</v>
+      </c>
+      <c r="E9" t="n">
+        <v>6.7724464</v>
+      </c>
+      <c r="F9" t="n">
+        <v>2.43186951</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="3" t="n">
+        <v>43344</v>
+      </c>
+      <c r="B10" t="n">
+        <v>4.44582726</v>
+      </c>
+      <c r="C10" t="n">
+        <v>1.26121621</v>
+      </c>
+      <c r="D10" t="n">
+        <v>22.94521544</v>
+      </c>
+      <c r="E10" t="n">
+        <v>7.084054440000001</v>
+      </c>
+      <c r="F10" t="n">
+        <v>2.43384777</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="3" t="n">
+        <v>43374</v>
+      </c>
+      <c r="B11" t="n">
+        <v>3.99385038</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.9050785800000001</v>
+      </c>
+      <c r="D11" t="n">
+        <v>23.9263147</v>
+      </c>
+      <c r="E11" t="n">
+        <v>6.68391</v>
+      </c>
+      <c r="F11" t="n">
+        <v>2.42374543</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="3" t="n">
+        <v>43405</v>
+      </c>
+      <c r="B12" t="n">
+        <v>9.06741214</v>
+      </c>
+      <c r="C12" t="n">
+        <v>5.304202190000001</v>
+      </c>
+      <c r="D12" t="n">
+        <v>53.26799536</v>
+      </c>
+      <c r="E12" t="n">
+        <v>12.79111751</v>
+      </c>
+      <c r="F12" t="n">
+        <v>3.78961468</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="3" t="n">
+        <v>43435</v>
+      </c>
+      <c r="B13" t="n">
+        <v>6.13937681</v>
+      </c>
+      <c r="C13" t="n">
+        <v>2.50788441</v>
+      </c>
+      <c r="D13" t="n">
+        <v>37.16312593000001</v>
+      </c>
+      <c r="E13" t="n">
+        <v>9.2056817</v>
+      </c>
+      <c r="F13" t="n">
+        <v>2.71624101</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="3" t="n">
+        <v>43466</v>
+      </c>
+      <c r="B14" t="n">
+        <v>4.761101839999999</v>
+      </c>
+      <c r="C14" t="n">
+        <v>2.14987819</v>
+      </c>
+      <c r="D14" t="n">
+        <v>31.45958949</v>
+      </c>
+      <c r="E14" t="n">
+        <v>8.566899749999997</v>
+      </c>
+      <c r="F14" t="n">
+        <v>2.4538293</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="3" t="n">
+        <v>43497</v>
+      </c>
+      <c r="B15" t="n">
+        <v>4.983213449999999</v>
+      </c>
+      <c r="C15" t="n">
+        <v>1.73959166</v>
+      </c>
+      <c r="D15" t="n">
+        <v>23.64313621</v>
+      </c>
+      <c r="E15" t="n">
+        <v>7.00238673</v>
+      </c>
+      <c r="F15" t="n">
+        <v>3.05283667</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="3" t="n">
+        <v>43525</v>
+      </c>
+      <c r="B16" t="n">
+        <v>5.64924545</v>
+      </c>
+      <c r="C16" t="n">
+        <v>1.72224444</v>
+      </c>
+      <c r="D16" t="n">
+        <v>35.73453285999999</v>
+      </c>
+      <c r="E16" t="n">
+        <v>8.01619153</v>
+      </c>
+      <c r="F16" t="n">
+        <v>2.5831896</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="3" t="n">
+        <v>43556</v>
+      </c>
+      <c r="B17" t="n">
+        <v>5.43867373</v>
+      </c>
+      <c r="C17" t="n">
+        <v>1.63149968</v>
+      </c>
+      <c r="D17" t="n">
+        <v>37.15492462</v>
+      </c>
+      <c r="E17" t="n">
+        <v>6.78253746</v>
+      </c>
+      <c r="F17" t="n">
+        <v>2.22220451</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="3" t="n">
+        <v>43586</v>
+      </c>
+      <c r="B18" t="n">
+        <v>5.08870884</v>
+      </c>
+      <c r="C18" t="n">
+        <v>1.64465808</v>
+      </c>
+      <c r="D18" t="n">
+        <v>48.29407467999999</v>
+      </c>
+      <c r="E18" t="n">
+        <v>5.987417210000001</v>
+      </c>
+      <c r="F18" t="n">
+        <v>1.92991807</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="inlineStr">
+        <is>
+          <t>dt</t>
+        </is>
+      </c>
+      <c r="B21" s="1" t="inlineStr">
+        <is>
+          <t>九阳</t>
+        </is>
+      </c>
+      <c r="C21" s="1" t="inlineStr">
+        <is>
+          <t>科沃斯</t>
+        </is>
+      </c>
+      <c r="D21" s="1" t="inlineStr">
+        <is>
+          <t>美的</t>
+        </is>
+      </c>
+      <c r="E21" s="1" t="inlineStr">
+        <is>
+          <t>苏泊尔</t>
+        </is>
+      </c>
+      <c r="F21" s="1" t="inlineStr">
+        <is>
+          <t>飞科</t>
+        </is>
+      </c>
+      <c r="I21" s="1" t="inlineStr">
+        <is>
+          <t>dt</t>
+        </is>
+      </c>
+      <c r="J21" s="1" t="inlineStr">
+        <is>
+          <t>九阳</t>
+        </is>
+      </c>
+      <c r="K21" s="1" t="inlineStr">
+        <is>
+          <t>科沃斯</t>
+        </is>
+      </c>
+      <c r="L21" s="1" t="inlineStr">
+        <is>
+          <t>美的</t>
+        </is>
+      </c>
+      <c r="M21" s="1" t="inlineStr">
+        <is>
+          <t>苏泊尔</t>
+        </is>
+      </c>
+      <c r="N21" s="1" t="inlineStr">
+        <is>
+          <t>飞科</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="3" t="n">
+        <v>43101</v>
+      </c>
+      <c r="B22" t="n">
+        <v>0.01554445</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0.0009738699999999999</v>
+      </c>
+      <c r="D22" t="n">
+        <v>0.05848976000000001</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0.02999488</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0.02781365</v>
+      </c>
+      <c r="I22" s="3" t="n">
+        <v>43466</v>
+      </c>
+      <c r="J22" t="n">
+        <v>0.3014362039184402</v>
+      </c>
+      <c r="K22" t="n">
+        <v>0.5189296312649534</v>
+      </c>
+      <c r="L22" t="n">
+        <v>0.1760733844693498</v>
+      </c>
+      <c r="M22" t="n">
+        <v>0.3622608258476114</v>
+      </c>
+      <c r="N22" t="n">
+        <v>0.4473576822890921</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="3" t="n">
+        <v>43132</v>
+      </c>
+      <c r="B23" t="n">
+        <v>0.01110719</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0.00104818</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0.03453933</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0.0177658</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0.02698068</v>
+      </c>
+      <c r="I23" s="3" t="n">
+        <v>43497</v>
+      </c>
+      <c r="J23" t="n">
+        <v>0.7651971380700249</v>
+      </c>
+      <c r="K23" t="n">
+        <v>0.1154572687897115</v>
+      </c>
+      <c r="L23" t="n">
+        <v>0.5564670768078013</v>
+      </c>
+      <c r="M23" t="n">
+        <v>1.011980321741774</v>
+      </c>
+      <c r="N23" t="n">
+        <v>0.7629611262577518</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="3" t="n">
+        <v>43160</v>
+      </c>
+      <c r="B24" t="n">
+        <v>0.01496275</v>
+      </c>
+      <c r="C24" t="n">
+        <v>0.0008721199999999999</v>
+      </c>
+      <c r="D24" t="n">
+        <v>0.04923658</v>
+      </c>
+      <c r="E24" t="n">
+        <v>0.02222088</v>
+      </c>
+      <c r="F24" t="n">
+        <v>0.0282235</v>
+      </c>
+      <c r="I24" s="3" t="n">
+        <v>43525</v>
+      </c>
+      <c r="J24" t="n">
+        <v>0.3696025129070526</v>
+      </c>
+      <c r="K24" t="n">
+        <v>0.1557125166261524</v>
+      </c>
+      <c r="L24" t="n">
+        <v>0.4027570558312541</v>
+      </c>
+      <c r="M24" t="n">
+        <v>0.7563291822826104</v>
+      </c>
+      <c r="N24" t="n">
+        <v>0.4233766187751342</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="3" t="n">
+        <v>43191</v>
+      </c>
+      <c r="B25" t="n">
+        <v>0.0132557</v>
+      </c>
+      <c r="C25" t="n">
+        <v>0.0008862100000000001</v>
+      </c>
+      <c r="D25" t="n">
+        <v>0.05218999999999999</v>
+      </c>
+      <c r="E25" t="n">
+        <v>0.02163176</v>
+      </c>
+      <c r="F25" t="n">
+        <v>0.02472996</v>
+      </c>
+      <c r="I25" s="3" t="n">
+        <v>43556</v>
+      </c>
+      <c r="J25" t="n">
+        <v>0.5743227441779766</v>
+      </c>
+      <c r="K25" t="n">
+        <v>0.3400435562677016</v>
+      </c>
+      <c r="L25" t="n">
+        <v>0.3482498562943097</v>
+      </c>
+      <c r="M25" t="n">
+        <v>0.610849510164684</v>
+      </c>
+      <c r="N25" t="n">
+        <v>0.2948779537047372</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="3" t="n">
+        <v>43221</v>
+      </c>
+      <c r="B26" t="n">
+        <v>0.01405016</v>
+      </c>
+      <c r="C26" t="n">
+        <v>0.00059799</v>
+      </c>
+      <c r="D26" t="n">
+        <v>0.06318687999999999</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0.02240686</v>
+      </c>
+      <c r="F26" t="n">
+        <v>0.01940132</v>
+      </c>
+      <c r="I26" s="3" t="n">
+        <v>43586</v>
+      </c>
+      <c r="J26" t="n">
+        <v>0.3332809021391929</v>
+      </c>
+      <c r="K26" t="n">
+        <v>0.7713005234201242</v>
+      </c>
+      <c r="L26" t="n">
+        <v>0.2626736752946186</v>
+      </c>
+      <c r="M26" t="n">
+        <v>0.2982925764698847</v>
+      </c>
+      <c r="N26" t="n">
+        <v>0.2837616203433579</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="3" t="n">
+        <v>43252</v>
+      </c>
+      <c r="B27" t="n">
+        <v>0.02408366</v>
+      </c>
+      <c r="C27" t="n">
+        <v>0.00146755</v>
+      </c>
+      <c r="D27" t="n">
+        <v>0.08866805</v>
+      </c>
+      <c r="E27" t="n">
+        <v>0.03299676</v>
+      </c>
+      <c r="F27" t="n">
+        <v>0.03992156</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="3" t="n">
+        <v>43282</v>
+      </c>
+      <c r="B28" t="n">
+        <v>0.01845847</v>
+      </c>
+      <c r="C28" t="n">
+        <v>0.0007825800000000002</v>
+      </c>
+      <c r="D28" t="n">
+        <v>0.06149756999999999</v>
+      </c>
+      <c r="E28" t="n">
+        <v>0.02821001</v>
+      </c>
+      <c r="F28" t="n">
+        <v>0.02916874999999999</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="3" t="n">
+        <v>43313</v>
+      </c>
+      <c r="B29" t="n">
+        <v>0.01945285</v>
+      </c>
+      <c r="C29" t="n">
+        <v>0.0009575300000000001</v>
+      </c>
+      <c r="D29" t="n">
+        <v>0.05874662000000001</v>
+      </c>
+      <c r="E29" t="n">
+        <v>0.03479634</v>
+      </c>
+      <c r="F29" t="n">
+        <v>0.03658603</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="3" t="n">
+        <v>43344</v>
+      </c>
+      <c r="B30" t="n">
+        <v>0.01938846</v>
+      </c>
+      <c r="C30" t="n">
+        <v>0.0008037400000000001</v>
+      </c>
+      <c r="D30" t="n">
+        <v>0.05421645000000001</v>
+      </c>
+      <c r="E30" t="n">
+        <v>0.03628294</v>
+      </c>
+      <c r="F30" t="n">
+        <v>0.03889187</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="3" t="n">
+        <v>43374</v>
+      </c>
+      <c r="B31" t="n">
+        <v>0.01865013</v>
+      </c>
+      <c r="C31" t="n">
+        <v>0.00071756</v>
+      </c>
+      <c r="D31" t="n">
+        <v>0.06036595</v>
+      </c>
+      <c r="E31" t="n">
+        <v>0.03567694</v>
+      </c>
+      <c r="F31" t="n">
+        <v>0.0431655</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="3" t="n">
+        <v>43405</v>
+      </c>
+      <c r="B32" t="n">
+        <v>0.03196999</v>
+      </c>
+      <c r="C32" t="n">
+        <v>0.00337218</v>
+      </c>
+      <c r="D32" t="n">
+        <v>0.10996713</v>
+      </c>
+      <c r="E32" t="n">
+        <v>0.06111506</v>
+      </c>
+      <c r="F32" t="n">
+        <v>0.06404465000000001</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="3" t="n">
+        <v>43435</v>
+      </c>
+      <c r="B33" t="n">
+        <v>0.02647899</v>
+      </c>
+      <c r="C33" t="n">
+        <v>0.00148547</v>
+      </c>
+      <c r="D33" t="n">
+        <v>0.08396529</v>
+      </c>
+      <c r="E33" t="n">
+        <v>0.04579534</v>
+      </c>
+      <c r="F33" t="n">
+        <v>0.04556532</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="3" t="n">
+        <v>43466</v>
+      </c>
+      <c r="B34" t="n">
+        <v>0.02023011</v>
+      </c>
+      <c r="C34" t="n">
+        <v>0.00147924</v>
+      </c>
+      <c r="D34" t="n">
+        <v>0.06878825000000001</v>
+      </c>
+      <c r="E34" t="n">
+        <v>0.04086085</v>
+      </c>
+      <c r="F34" t="n">
+        <v>0.0402563</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="3" t="n">
+        <v>43497</v>
+      </c>
+      <c r="B35" t="n">
+        <v>0.01960638</v>
+      </c>
+      <c r="C35" t="n">
+        <v>0.0011692</v>
+      </c>
+      <c r="D35" t="n">
+        <v>0.05375932999999999</v>
+      </c>
+      <c r="E35" t="n">
+        <v>0.03574444</v>
+      </c>
+      <c r="F35" t="n">
+        <v>0.04756589</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="3" t="n">
+        <v>43525</v>
+      </c>
+      <c r="B36" t="n">
+        <v>0.02049302</v>
+      </c>
+      <c r="C36" t="n">
+        <v>0.00100792</v>
+      </c>
+      <c r="D36" t="n">
+        <v>0.06906696000000001</v>
+      </c>
+      <c r="E36" t="n">
+        <v>0.03902718000000001</v>
+      </c>
+      <c r="F36" t="n">
+        <v>0.04017267</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="3" t="n">
+        <v>43556</v>
+      </c>
+      <c r="B37" t="n">
+        <v>0.02086875</v>
+      </c>
+      <c r="C37" t="n">
+        <v>0.00118756</v>
+      </c>
+      <c r="D37" t="n">
+        <v>0.07036516000000001</v>
+      </c>
+      <c r="E37" t="n">
+        <v>0.03484551</v>
+      </c>
+      <c r="F37" t="n">
+        <v>0.03202228</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="3" t="n">
+        <v>43586</v>
+      </c>
+      <c r="B38" t="n">
+        <v>0.01873281</v>
+      </c>
+      <c r="C38" t="n">
+        <v>0.00105922</v>
+      </c>
+      <c r="D38" t="n">
+        <v>0.07978441000000001</v>
+      </c>
+      <c r="E38" t="n">
+        <v>0.02909066</v>
+      </c>
+      <c r="F38" t="n">
+        <v>0.02490667</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="inlineStr">
+        <is>
+          <t>dt</t>
+        </is>
+      </c>
+      <c r="B41" s="1" t="inlineStr">
+        <is>
+          <t>九阳</t>
+        </is>
+      </c>
+      <c r="C41" s="1" t="inlineStr">
+        <is>
+          <t>科沃斯</t>
+        </is>
+      </c>
+      <c r="D41" s="1" t="inlineStr">
+        <is>
+          <t>美的</t>
+        </is>
+      </c>
+      <c r="E41" s="1" t="inlineStr">
+        <is>
+          <t>苏泊尔</t>
+        </is>
+      </c>
+      <c r="F41" s="1" t="inlineStr">
+        <is>
+          <t>飞科</t>
+        </is>
+      </c>
+      <c r="I41" s="1" t="inlineStr">
+        <is>
+          <t>dt</t>
+        </is>
+      </c>
+      <c r="J41" s="1" t="inlineStr">
+        <is>
+          <t>九阳</t>
+        </is>
+      </c>
+      <c r="K41" s="1" t="inlineStr">
+        <is>
+          <t>科沃斯</t>
+        </is>
+      </c>
+      <c r="L41" s="1" t="inlineStr">
+        <is>
+          <t>美的</t>
+        </is>
+      </c>
+      <c r="M41" s="1" t="inlineStr">
+        <is>
+          <t>苏泊尔</t>
+        </is>
+      </c>
+      <c r="N41" s="1" t="inlineStr">
+        <is>
+          <t>飞科</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="3" t="n">
+        <v>43101</v>
+      </c>
+      <c r="B42" t="n">
+        <v>219.7151221175403</v>
+      </c>
+      <c r="C42" t="n">
+        <v>1362.828046864571</v>
+      </c>
+      <c r="D42" t="n">
+        <v>412.1015509381471</v>
+      </c>
+      <c r="E42" t="n">
+        <v>202.1913916641774</v>
+      </c>
+      <c r="F42" t="n">
+        <v>63.05279314293522</v>
+      </c>
+      <c r="I42" s="3" t="n">
+        <v>43466</v>
+      </c>
+      <c r="J42" t="n">
+        <v>0.07114749922649843</v>
+      </c>
+      <c r="K42" t="n">
+        <v>0.06643440854058369</v>
+      </c>
+      <c r="L42" t="n">
+        <v>0.1097739884538698</v>
+      </c>
+      <c r="M42" t="n">
+        <v>0.03693999733485698</v>
+      </c>
+      <c r="N42" t="n">
+        <v>-0.03326784969861385</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="3" t="n">
+        <v>43132</v>
+      </c>
+      <c r="B43" t="n">
+        <v>240.2404199441983</v>
+      </c>
+      <c r="C43" t="n">
+        <v>2651.586158865844</v>
+      </c>
+      <c r="D43" t="n">
+        <v>427.3514309629053</v>
+      </c>
+      <c r="E43" t="n">
+        <v>207.273562687861</v>
+      </c>
+      <c r="F43" t="n">
+        <v>70.27694038845573</v>
+      </c>
+      <c r="I43" s="3" t="n">
+        <v>43497</v>
+      </c>
+      <c r="J43" t="n">
+        <v>0.05795207834310512</v>
+      </c>
+      <c r="K43" t="n">
+        <v>-0.4388838524088955</v>
+      </c>
+      <c r="L43" t="n">
+        <v>0.02912013233192856</v>
+      </c>
+      <c r="M43" t="n">
+        <v>-0.05486535567538564</v>
+      </c>
+      <c r="N43" t="n">
+        <v>-0.08673861086298773</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="3" t="n">
+        <v>43160</v>
+      </c>
+      <c r="B44" t="n">
+        <v>217.1795351790279</v>
+      </c>
+      <c r="C44" t="n">
+        <v>1443.326973352291</v>
+      </c>
+      <c r="D44" t="n">
+        <v>469.4933145234701</v>
+      </c>
+      <c r="E44" t="n">
+        <v>189.5617837817404</v>
+      </c>
+      <c r="F44" t="n">
+        <v>72.95461831452513</v>
+      </c>
+      <c r="I44" s="3" t="n">
+        <v>43525</v>
+      </c>
+      <c r="J44" t="n">
+        <v>0.269303803142642</v>
+      </c>
+      <c r="K44" t="n">
+        <v>0.1838699594064463</v>
+      </c>
+      <c r="L44" t="n">
+        <v>0.1020171568487918</v>
+      </c>
+      <c r="M44" t="n">
+        <v>0.0835529203724068</v>
+      </c>
+      <c r="N44" t="n">
+        <v>-0.1186005064421589</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="3" t="n">
+        <v>43191</v>
+      </c>
+      <c r="B45" t="n">
+        <v>229.2040571225963</v>
+      </c>
+      <c r="C45" t="n">
+        <v>1475.837634420735</v>
+      </c>
+      <c r="D45" t="n">
+        <v>456.8105284537268</v>
+      </c>
+      <c r="E45" t="n">
+        <v>191.1519737645018</v>
+      </c>
+      <c r="F45" t="n">
+        <v>68.76569634564716</v>
+      </c>
+      <c r="I45" s="3" t="n">
+        <v>43556</v>
+      </c>
+      <c r="J45" t="n">
+        <v>0.1370361402314193</v>
+      </c>
+      <c r="K45" t="n">
+        <v>-0.06912181868219114</v>
+      </c>
+      <c r="L45" t="n">
+        <v>0.1559062185443456</v>
+      </c>
+      <c r="M45" t="n">
+        <v>0.0182785349759893</v>
+      </c>
+      <c r="N45" t="n">
+        <v>0.009159769430706621</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="3" t="n">
+        <v>43221</v>
+      </c>
+      <c r="B46" t="n">
+        <v>260.8411299230756</v>
+      </c>
+      <c r="C46" t="n">
+        <v>1290.512868108162</v>
+      </c>
+      <c r="D46" t="n">
+        <v>468.7029927731833</v>
+      </c>
+      <c r="E46" t="n">
+        <v>192.2504938219813</v>
+      </c>
+      <c r="F46" t="n">
+        <v>68.26368051245998</v>
+      </c>
+      <c r="I46" s="3" t="n">
+        <v>43586</v>
+      </c>
+      <c r="J46" t="n">
+        <v>0.04142644495049952</v>
+      </c>
+      <c r="K46" t="n">
+        <v>0.203170322907094</v>
+      </c>
+      <c r="L46" t="n">
+        <v>0.2914514521298086</v>
+      </c>
+      <c r="M46" t="n">
+        <v>0.07057841480230809</v>
+      </c>
+      <c r="N46" t="n">
+        <v>0.1350983851043874</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="3" t="n">
+        <v>43252</v>
+      </c>
+      <c r="B47" t="n">
+        <v>240.1409333132921</v>
+      </c>
+      <c r="C47" t="n">
+        <v>1471.644870702872</v>
+      </c>
+      <c r="D47" t="n">
+        <v>582.7014636049852</v>
+      </c>
+      <c r="E47" t="n">
+        <v>202.7716090913168</v>
+      </c>
+      <c r="F47" t="n">
+        <v>68.41899990882118</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="3" t="n">
+        <v>43282</v>
+      </c>
+      <c r="B48" t="n">
+        <v>223.3673966477179</v>
+      </c>
+      <c r="C48" t="n">
+        <v>1578.736921464898</v>
+      </c>
+      <c r="D48" t="n">
+        <v>563.0354633524546</v>
+      </c>
+      <c r="E48" t="n">
+        <v>205.7993247786867</v>
+      </c>
+      <c r="F48" t="n">
+        <v>72.63799991429187</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="3" t="n">
+        <v>43313</v>
+      </c>
+      <c r="B49" t="n">
+        <v>229.033436231709</v>
+      </c>
+      <c r="C49" t="n">
+        <v>1517.957755892766</v>
+      </c>
+      <c r="D49" t="n">
+        <v>441.9777030576397</v>
+      </c>
+      <c r="E49" t="n">
+        <v>194.6309985475484</v>
+      </c>
+      <c r="F49" t="n">
+        <v>66.46989328987048</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="3" t="n">
+        <v>43344</v>
+      </c>
+      <c r="B50" t="n">
+        <v>229.3027532872647</v>
+      </c>
+      <c r="C50" t="n">
+        <v>1569.184325776992</v>
+      </c>
+      <c r="D50" t="n">
+        <v>423.2150102044673</v>
+      </c>
+      <c r="E50" t="n">
+        <v>195.2447745414236</v>
+      </c>
+      <c r="F50" t="n">
+        <v>62.57985974960833</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="3" t="n">
+        <v>43374</v>
+      </c>
+      <c r="B51" t="n">
+        <v>214.1459807518768</v>
+      </c>
+      <c r="C51" t="n">
+        <v>1261.328084062657</v>
+      </c>
+      <c r="D51" t="n">
+        <v>396.354479636285</v>
+      </c>
+      <c r="E51" t="n">
+        <v>187.3453833204305</v>
+      </c>
+      <c r="F51" t="n">
+        <v>56.15006034912141</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="3" t="n">
+        <v>43405</v>
+      </c>
+      <c r="B52" t="n">
+        <v>283.6226142078868</v>
+      </c>
+      <c r="C52" t="n">
+        <v>1572.929733881347</v>
+      </c>
+      <c r="D52" t="n">
+        <v>484.3992505760585</v>
+      </c>
+      <c r="E52" t="n">
+        <v>209.2956713124392</v>
+      </c>
+      <c r="F52" t="n">
+        <v>59.17144804445022</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="3" t="n">
+        <v>43435</v>
+      </c>
+      <c r="B53" t="n">
+        <v>231.8584209594097</v>
+      </c>
+      <c r="C53" t="n">
+        <v>1688.27671376736</v>
+      </c>
+      <c r="D53" t="n">
+        <v>442.6010549120953</v>
+      </c>
+      <c r="E53" t="n">
+        <v>201.0178699404787</v>
+      </c>
+      <c r="F53" t="n">
+        <v>59.61202532979029</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="3" t="n">
+        <v>43466</v>
+      </c>
+      <c r="B54" t="n">
+        <v>235.347303598448</v>
+      </c>
+      <c r="C54" t="n">
+        <v>1453.366722100538</v>
+      </c>
+      <c r="D54" t="n">
+        <v>457.339581832653</v>
+      </c>
+      <c r="E54" t="n">
+        <v>209.6603411333831</v>
+      </c>
+      <c r="F54" t="n">
+        <v>60.95516229757826</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="3" t="n">
+        <v>43497</v>
+      </c>
+      <c r="B55" t="n">
+        <v>254.162851581985</v>
+      </c>
+      <c r="C55" t="n">
+        <v>1487.847810468696</v>
+      </c>
+      <c r="D55" t="n">
+        <v>439.7959611847841</v>
+      </c>
+      <c r="E55" t="n">
+        <v>195.9014249488871</v>
+      </c>
+      <c r="F55" t="n">
+        <v>64.18121620346008</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="3" t="n">
+        <v>43525</v>
+      </c>
+      <c r="B56" t="n">
+        <v>275.6668099674914</v>
+      </c>
+      <c r="C56" t="n">
+        <v>1708.711445352806</v>
+      </c>
+      <c r="D56" t="n">
+        <v>517.3896876306701</v>
+      </c>
+      <c r="E56" t="n">
+        <v>205.4002244077076</v>
+      </c>
+      <c r="F56" t="n">
+        <v>64.30216363512805</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="3" t="n">
+        <v>43556</v>
+      </c>
+      <c r="B57" t="n">
+        <v>260.6132964360586</v>
+      </c>
+      <c r="C57" t="n">
+        <v>1373.825053049951</v>
+      </c>
+      <c r="D57" t="n">
+        <v>528.0301305361915</v>
+      </c>
+      <c r="E57" t="n">
+        <v>194.6459518026856</v>
+      </c>
+      <c r="F57" t="n">
+        <v>69.39557426891527</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="3" t="n">
+        <v>43586</v>
+      </c>
+      <c r="B58" t="n">
+        <v>271.6468506326599</v>
+      </c>
+      <c r="C58" t="n">
+        <v>1552.706784237458</v>
+      </c>
+      <c r="D58" t="n">
+        <v>605.3071606345147</v>
+      </c>
+      <c r="E58" t="n">
+        <v>205.8192289208977</v>
+      </c>
+      <c r="F58" t="n">
+        <v>77.48599351097518</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>